--- a/test_case/unit-test-case.xlsx
+++ b/test_case/unit-test-case.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-unit-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D0678D-1D82-449B-99B5-1BC7657F1C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ED51525-96B5-4B30-8816-8D9EAAC4E04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCase" sheetId="3" r:id="rId1"/>
+    <sheet name="入力バリデーション" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCase!$A$4:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">入力バリデーション!$A$4:$R$4</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -49,13 +49,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>テスト項目</t>
+  </si>
+  <si>
     <t>テスト観点</t>
   </si>
   <si>
-    <t>手順</t>
+    <t>名前（姓）</t>
   </si>
   <si>
-    <t>入力データ</t>
+    <t>名前（名）</t>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>性別</t>
+  </si>
+  <si>
+    <t>郵便番号</t>
   </si>
   <si>
     <t>実施日</t>
@@ -82,7 +103,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>有効な入力が</t>
+    <t>11文字以上だと登録できない</t>
+  </si>
+  <si>
+    <t>101文字以上だと登録できない</t>
+  </si>
+  <si>
+    <t>どちらかを選ばないと登録できない</t>
+  </si>
+  <si>
+    <t>8文字以上だと登録できない</t>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+  </si>
+  <si>
+    <t>空欄選択状態で登録できない</t>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+  </si>
+  <si>
+    <t>【確認する】ボタン</t>
+  </si>
+  <si>
+    <t>未入力項目があると登録できない</t>
+  </si>
+  <si>
+    <t>エラー項目があると登録できない</t>
+  </si>
+  <si>
+    <t>エラー項目がない場合、確認画面に遷移する</t>
   </si>
 </sst>
 </file>
@@ -251,8 +308,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>962026</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1301,34 +1358,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="3" customWidth="1"/>
-    <col min="3" max="4" width="42.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="44.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="8.125" style="3" customWidth="1"/>
+    <col min="10" max="13" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="3" customWidth="1"/>
+    <col min="17" max="17" width="11.75" style="2" customWidth="1"/>
+    <col min="18" max="18" width="44.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:18">
       <c r="A1" s="1"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="B1" s="1"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="B2" s="1"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -1338,1223 +1402,2410 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="4">
         <f>ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A70" si="0">ROW()-4</f>
         <v>3</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="8"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="8"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="8"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="8"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="8"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="8"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="8"/>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="8"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="B20" s="4"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="B21" s="4"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="B22" s="4"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="8"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="B23" s="4"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="B24" s="4"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="8"/>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="B25" s="4"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="8"/>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="B26" s="4"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="8"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="B27" s="4"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="8"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="B28" s="4"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="8"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="B29" s="4"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="8"/>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="B30" s="4"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="8"/>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="B31" s="4"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="8"/>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="B32" s="4"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="8"/>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="B33" s="4"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="8"/>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="B34" s="4"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="8"/>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="B35" s="4"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="8"/>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="B36" s="4"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="8"/>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="B37" s="4"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="8"/>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="B38" s="4"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="8"/>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="B39" s="4"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="8"/>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="B40" s="4"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="8"/>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="B41" s="4"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="8"/>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="B42" s="4"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="8"/>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="B43" s="4"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="8"/>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="B44" s="4"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="8"/>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="B45" s="4"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="8"/>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="B46" s="4"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="8"/>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="B47" s="4"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="8"/>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="B48" s="4"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="8"/>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="B49" s="4"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="8"/>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="B50" s="4"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="8"/>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="B51" s="4"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="8"/>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="B52" s="4"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="8"/>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="B53" s="4"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="8"/>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="B54" s="4"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="8"/>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="B55" s="4"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="8"/>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="B56" s="4"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="8"/>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="B57" s="4"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="8"/>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="B58" s="4"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="8"/>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="8"/>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="B59" s="4"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="8"/>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="B60" s="4"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="8"/>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="B61" s="4"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="8"/>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="B62" s="4"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="8"/>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="B63" s="4"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="8"/>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="8"/>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="B64" s="4"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="8"/>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="8"/>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="B65" s="4"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="8"/>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="8"/>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="B66" s="4"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="8"/>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="8"/>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="B67" s="4"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="8"/>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="8"/>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="B68" s="4"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="8"/>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="8"/>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="B69" s="4"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="8"/>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="8"/>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="B70" s="4"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="8"/>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="4">
         <f t="shared" ref="A71:A104" si="1">ROW()-4</f>
         <v>67</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="8"/>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="B71" s="4"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="8"/>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="4">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="8"/>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="B72" s="4"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="8"/>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="4">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="8"/>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="B73" s="4"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="8"/>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="4">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="8"/>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="B74" s="4"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="8"/>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="4">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="8"/>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="B75" s="4"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="8"/>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="4">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="8"/>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="B76" s="4"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="8"/>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="4">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="8"/>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="B77" s="4"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="8"/>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="4">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="8"/>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="B78" s="4"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="8"/>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="4">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="8"/>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="B79" s="4"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="8"/>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="8"/>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="B80" s="4"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="8"/>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="4">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="8"/>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="B81" s="4"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="8"/>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="4">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="8"/>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="B82" s="4"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="8"/>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="4">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="8"/>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="B83" s="4"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="8"/>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="4">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="8"/>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="B84" s="4"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="8"/>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="4">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="8"/>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="B85" s="4"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="8"/>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="4">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="8"/>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="B86" s="4"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="8"/>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="4">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="8"/>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="B87" s="4"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="8"/>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="4">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="8"/>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="B88" s="4"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="8"/>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="4">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="8"/>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="B89" s="4"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="8"/>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" s="4">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="8"/>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="B90" s="4"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="8"/>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" s="4">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="8"/>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="B91" s="4"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="8"/>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" s="4">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="8"/>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="B92" s="4"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="8"/>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" s="4">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="8"/>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="B93" s="4"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="8"/>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" s="4">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="8"/>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="B94" s="4"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="8"/>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" s="4">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="8"/>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="B95" s="4"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="8"/>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" s="4">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="8"/>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="B96" s="4"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="8"/>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" s="4">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B97" s="10"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="8"/>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="B97" s="4"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="8"/>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98" s="4">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="8"/>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="B98" s="4"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="8"/>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99" s="4">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B99" s="10"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="8"/>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="B99" s="4"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="8"/>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100" s="4">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="8"/>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="B100" s="4"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="8"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="8"/>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101" s="4">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="8"/>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="B101" s="4"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="8"/>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102" s="4">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="8"/>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="B102" s="4"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="8"/>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103" s="4">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="8"/>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="B103" s="4"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="8"/>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="8"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:G4" xr:uid="{A873AFF5-382B-4441-AB55-F296E2858406}"/>
+  <autoFilter ref="A4:R4" xr:uid="{A873AFF5-382B-4441-AB55-F296E2858406}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>

--- a/test_case/unit-test-case.xlsx
+++ b/test_case/unit-test-case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26322"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-unit-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA25EFC4-B443-41F4-BB28-DBA418406E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5447C7C-AD8E-41DF-A12A-5AC8A6B51A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース_パターン1" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,229 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="88">
+  <si>
+    <t>テストID</t>
+  </si>
+  <si>
+    <t>テストケース</t>
+  </si>
+  <si>
+    <t>テスト観点</t>
+  </si>
+  <si>
+    <t>手順</t>
+  </si>
+  <si>
+    <t>期待される結果</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Internet Explorer</t>
+  </si>
+  <si>
+    <t>実施日</t>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全ての入力項目に正常な値を入力する</t>
+  </si>
+  <si>
+    <t>正常な値で入力すると確認画面へ遷移できるかどうか</t>
+  </si>
+  <si>
+    <t>1.名前（姓）へ「山田」を入力する
+2.名前（名）へ「太郎」を入力する
+3.カナ（姓）へ「ヤマダ」を入力する
+4.カナ（名）へ「タロウ」を入力する
+5.メールアドレスへ「test@test.com」を入力する
+6.パスワードへ「abc123」を入力する
+7.性別へ「男」を選択する
+8.郵便番号へ「1234567」を入力する
+9.住所（都道府県）のリストから「東京都」を選択する
+10.住所（市区町村）へ「渋谷区」を入力する
+11.住所（番地）へ「1-1-1」を入力する
+12.アカウント権限のリストから「一般」を選択する
+13.【確認】ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>確認画面へ遷移する</t>
+  </si>
+  <si>
+    <t>OKorNG</t>
+  </si>
+  <si>
+    <t>名前（姓）へ10文字まで入力できる</t>
+  </si>
+  <si>
+    <t>入力文字数が制限出来ているか</t>
+  </si>
+  <si>
+    <t>1.「名前（姓）」の入力フォームは「10文字」まで入力する
+2.【確認】ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>10文字まで入力できる</t>
+  </si>
+  <si>
+    <t>名前（姓）へ「ひらがな」と「漢字」で入力されていれば、確認画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>入力文字種別に対するバリデーションが機能しているか</t>
+  </si>
+  <si>
+    <t>1.「名前（姓）」の入力フォームへ「ひらがな」と「漢字」で入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>名前（姓）へ入力がなければ、エラーが表示される</t>
+  </si>
+  <si>
+    <t>未入力に対するバリデーションが機能しているか</t>
+  </si>
+  <si>
+    <t>1.「名前（姓）」の入力フォームには入力しない
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「名前（姓）が未入力です。」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>名前（名）へ10文字までの入力であれば、確認画面へ遷移できる</t>
+  </si>
+  <si>
+    <t>「10文字」まで入力できる</t>
+  </si>
+  <si>
+    <t>1.アカウント登録画面を開く
+2.「名前（名）」の入力フォームへ「10文字」入力する</t>
+  </si>
+  <si>
+    <t>10文字すべて入力できる</t>
+  </si>
+  <si>
+    <t>名前（名）</t>
+  </si>
+  <si>
+    <t>「ひらがな」と「漢字」で入力できる</t>
+  </si>
+  <si>
+    <t>1.アカウント登録画面を開く
+2.「名前（姓）」の入力フォームへ「ひらがな」と「漢字」で入力する</t>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+  </si>
+  <si>
+    <t>1.アカウント登録画面を開く
+2.「カナ（姓）」の入力フォームへ「10文字」入力する</t>
+  </si>
+  <si>
+    <t>「カタカナ」で入力できる</t>
+  </si>
+  <si>
+    <t>1.アカウント登録画面を開く
+2.「カナ（姓）」の入力フォームへ「カタカナ」で入力する</t>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+  </si>
+  <si>
+    <t>「カタカナ」で入力すると登録できる</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>「100文字」まで入力できる</t>
+  </si>
+  <si>
+    <t>1.アカウント登録画面を開く
+2.「メールアドレス」の入力フォームへ「100文字」入力する</t>
+  </si>
+  <si>
+    <t>100文字すべて入力できる</t>
+  </si>
+  <si>
+    <t>「半角英数字」、「半角記号（ハイフンとアットマーク）」で入力すると登録できる</t>
+  </si>
+  <si>
+    <t>1.アカウント登録画面を開く
+2.「メールアドレス」の入力フォームへ「半角英数字」と「半角記号（ハイフンとアットマーク）」入力する</t>
+  </si>
+  <si>
+    <t>「半角英数字」と「半角記号（ハイフンとアットマーク）」で入力できる</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>1.アカウント登録画面を開く
+2.「パスワード」の入力フォームへ「10文字」入力する</t>
+  </si>
+  <si>
+    <t>「半角英数字」で入力すると登録できる</t>
+  </si>
+  <si>
+    <t>1.アカウント登録画面を開く
+2.「パスワード」の入力フォームへ「半角英数字」入力する</t>
+  </si>
+  <si>
+    <t>性別</t>
+  </si>
+  <si>
+    <t>「男」か「女」が選択できる</t>
+  </si>
+  <si>
+    <t>1.アカウント登録画面を開く
+2.「性別」の選択欄で「男」か「女」のラジオボタンをクリックする</t>
+  </si>
+  <si>
+    <t>郵便番号</t>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+  </si>
+  <si>
+    <t>【確認する】ボタン</t>
+  </si>
+  <si>
+    <t>未入力項目があると登録できない</t>
+  </si>
+  <si>
+    <t>エラー項目があると登録できない</t>
+  </si>
+  <si>
+    <t>エラー項目がない場合、確認画面に遷移する</t>
+  </si>
+  <si>
+    <t>1.名前（姓）へ「山田」を入力する
+2.名前（名）へ「太郎」を入力する
+3.カナ（姓）へ「ヤマダ」を入力する</t>
+  </si>
+  <si>
+    <t>入力内容</t>
+  </si>
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -49,156 +271,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>テスト項目</t>
-  </si>
-  <si>
-    <t>テスト観点</t>
-  </si>
-  <si>
-    <t>手順</t>
-  </si>
-  <si>
-    <t>期待される結果</t>
-  </si>
-  <si>
-    <t>結果</t>
-  </si>
-  <si>
-    <t>実施日</t>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>名前（姓）</t>
-  </si>
-  <si>
-    <t>「10文字」まで入力できる</t>
-  </si>
-  <si>
-    <t>1.アカウント登録画面を開く
-2.「名前（姓）」の入力フォームへ「10文字」入力する</t>
-  </si>
-  <si>
-    <t>10文字すべて入力できる</t>
-  </si>
-  <si>
-    <t>OKorNG</t>
-  </si>
-  <si>
-    <t>「ひらがな」と「漢字」で入力できる</t>
-  </si>
-  <si>
-    <t>1.アカウント登録画面を開く
-2.「名前（姓）」の入力フォームへ「ひらがな」と「漢字」で入力する</t>
-  </si>
-  <si>
-    <t>名前（名）</t>
-  </si>
-  <si>
-    <t>1.アカウント登録画面を開く
-2.「名前（名）」の入力フォームへ「10文字」入力する</t>
-  </si>
-  <si>
-    <t>カナ（姓）</t>
-  </si>
-  <si>
-    <t>1.アカウント登録画面を開く
-2.「カナ（姓）」の入力フォームへ「10文字」入力する</t>
-  </si>
-  <si>
-    <t>「カタカナ」で入力できる</t>
-  </si>
-  <si>
-    <t>1.アカウント登録画面を開く
-2.「カナ（姓）」の入力フォームへ「カタカナ」で入力する</t>
-  </si>
-  <si>
-    <t>カナ（名）</t>
-  </si>
-  <si>
-    <t>「カタカナ」で入力すると登録できる</t>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-  </si>
-  <si>
-    <t>「100文字」まで入力できる</t>
-  </si>
-  <si>
-    <t>1.アカウント登録画面を開く
-2.「メールアドレス」の入力フォームへ「100文字」入力する</t>
-  </si>
-  <si>
-    <t>100文字すべて入力できる</t>
-  </si>
-  <si>
-    <t>「半角英数字」、「半角記号（ハイフンとアットマーク）」で入力すると登録できる</t>
-  </si>
-  <si>
-    <t>1.アカウント登録画面を開く
-2.「メールアドレス」の入力フォームへ「半角英数字」と「半角記号（ハイフンとアットマーク）」入力する</t>
-  </si>
-  <si>
-    <t>「半角英数字」と「半角記号（ハイフンとアットマーク）」で入力できる</t>
-  </si>
-  <si>
-    <t>パスワード</t>
-  </si>
-  <si>
-    <t>1.アカウント登録画面を開く
-2.「パスワード」の入力フォームへ「10文字」入力する</t>
-  </si>
-  <si>
-    <t>「半角英数字」で入力すると登録できる</t>
-  </si>
-  <si>
-    <t>1.アカウント登録画面を開く
-2.「パスワード」の入力フォームへ「半角英数字」入力する</t>
-  </si>
-  <si>
-    <t>性別</t>
-  </si>
-  <si>
-    <t>「男」か「女」が選択できる</t>
-  </si>
-  <si>
-    <t>1.アカウント登録画面を開く
-2.「性別」の選択欄で「男」か「女」のラジオボタンをクリックする</t>
-  </si>
-  <si>
-    <t>郵便番号</t>
-  </si>
-  <si>
-    <t>住所（都道府県）</t>
-  </si>
-  <si>
-    <t>住所（市区町村）</t>
-  </si>
-  <si>
-    <t>住所（番地）</t>
-  </si>
-  <si>
-    <t>アカウント権限</t>
-  </si>
-  <si>
-    <t>【確認する】ボタン</t>
-  </si>
-  <si>
-    <t>未入力項目があると登録できない</t>
-  </si>
-  <si>
-    <t>エラー項目があると登録できない</t>
-  </si>
-  <si>
-    <t>エラー項目がない場合、確認画面に遷移する</t>
-  </si>
-  <si>
-    <t>入力内容</t>
   </si>
   <si>
     <t>実施日</t>
@@ -508,7 +581,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -587,15 +660,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -625,6 +689,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1720,52 +1799,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA9AF38-7352-4E06-B242-52066A65ADD8}">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="41.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="41.125" style="15" customWidth="1"/>
     <col min="4" max="4" width="53.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="53.625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="44.5" style="2" customWidth="1"/>
+    <col min="6" max="8" width="12.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="44.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="B1" s="36"/>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="B2" s="36"/>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" s="25" customFormat="1" ht="22.5">
+      <c r="B3" s="36"/>
+    </row>
+    <row r="4" spans="1:10" s="25" customFormat="1" ht="22.5">
       <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="35" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="22" t="s">
@@ -1777,1430 +1860,1662 @@
       <c r="H4" s="22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="36.75">
+      <c r="I4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="238.5">
       <c r="A5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
+      <c r="B5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="55.5">
+        <v>14</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="36.75">
       <c r="A6" s="4">
         <f>ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
+      <c r="B6" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="36.75">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="55.5">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A70" si="0">ROW()-4</f>
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
+      <c r="B7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="55.5">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="36.75">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>13</v>
+      <c r="B8" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="36.75">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="36.75">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>9</v>
+      <c r="B9" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="36.75">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="36.75">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="36.75">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="36.75">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="55.5">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>24</v>
+      <c r="B13" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" ht="55.5">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="36.75">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>23</v>
+      <c r="B14" s="37" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" ht="36.75">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="36.75">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>9</v>
+      <c r="B15" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="36.75">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="36.75">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>32</v>
+      <c r="B16" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" ht="55.5">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="36.75">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>35</v>
+      <c r="B17" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="36.75">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="14"/>
+      <c r="B18" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="55.5">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="14"/>
+      <c r="B19" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" ht="36.75">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="B20" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="36.75">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="B21" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" ht="55.5">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="B22" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="E22" s="14"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="8"/>
+      <c r="B23" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="14"/>
       <c r="D23" s="8"/>
       <c r="E23" s="14"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="8"/>
+      <c r="B24" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="14"/>
       <c r="D24" s="8"/>
       <c r="E24" s="14"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="B25" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="14"/>
       <c r="D25" s="8"/>
       <c r="E25" s="14"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="B26" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="14"/>
       <c r="D26" s="8"/>
       <c r="E26" s="14"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="B27" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="14"/>
       <c r="D27" s="8"/>
       <c r="E27" s="14"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="8"/>
+      <c r="B28" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="14"/>
       <c r="D28" s="8"/>
       <c r="E28" s="14"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
+      <c r="B29" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="D29" s="8"/>
       <c r="E29" s="14"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
+      <c r="B30" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="D30" s="8"/>
       <c r="E30" s="14"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
+      <c r="B31" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="D31" s="8"/>
       <c r="E31" s="14"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="8"/>
       <c r="E32" s="14"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="8"/>
       <c r="E33" s="14"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" ht="55.5">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="B34" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="E34" s="14"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="8"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="8"/>
       <c r="E35" s="14"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="8"/>
       <c r="E36" s="14"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="8"/>
       <c r="E37" s="14"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="8"/>
       <c r="E38" s="14"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="8"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="8"/>
       <c r="E39" s="14"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="8"/>
       <c r="E40" s="14"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="8"/>
       <c r="E41" s="14"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="8"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="8"/>
       <c r="E42" s="14"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="8"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="8"/>
       <c r="E43" s="14"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="8"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="8"/>
       <c r="E44" s="14"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="8"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="8"/>
       <c r="E45" s="14"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="8"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="8"/>
       <c r="E46" s="14"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="8"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="8"/>
       <c r="E47" s="14"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="8"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="8"/>
       <c r="E48" s="14"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="8"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="8"/>
       <c r="E49" s="14"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="8"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="8"/>
       <c r="E50" s="14"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="7"/>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="8"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="8"/>
       <c r="E51" s="14"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="7"/>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="8"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="8"/>
       <c r="E52" s="14"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="7"/>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="8"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="8"/>
       <c r="E53" s="14"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="8"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="8"/>
       <c r="E54" s="14"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="7"/>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="8"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="8"/>
       <c r="E55" s="14"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="8"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="8"/>
       <c r="E56" s="14"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="8"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="8"/>
       <c r="E57" s="14"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="8"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="8"/>
       <c r="E58" s="14"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="7"/>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="8"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="8"/>
       <c r="E59" s="14"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="8"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="8"/>
       <c r="E60" s="14"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="7"/>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="8"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="8"/>
       <c r="E61" s="14"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="8"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="8"/>
       <c r="E62" s="14"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="7"/>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="8"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="8"/>
       <c r="E63" s="14"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="7"/>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="8"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="8"/>
       <c r="E64" s="14"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="7"/>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="8"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="8"/>
       <c r="E65" s="14"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="7"/>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="8"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="8"/>
       <c r="E66" s="14"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="8"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="8"/>
       <c r="E67" s="14"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="7"/>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="8"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="8"/>
       <c r="E68" s="14"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
-      <c r="H68" s="7"/>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="7"/>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="8"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="14"/>
       <c r="D69" s="8"/>
       <c r="E69" s="14"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="7"/>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="8"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="14"/>
       <c r="D70" s="8"/>
       <c r="E70" s="14"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="7"/>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="4">
         <f t="shared" ref="A71:A104" si="1">ROW()-4</f>
         <v>67</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="8"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="14"/>
       <c r="D71" s="8"/>
       <c r="E71" s="14"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="7"/>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="4">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="8"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="14"/>
       <c r="D72" s="8"/>
       <c r="E72" s="14"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="7"/>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="4">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="8"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="14"/>
       <c r="D73" s="8"/>
       <c r="E73" s="14"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="7"/>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="4">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="8"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="14"/>
       <c r="D74" s="8"/>
       <c r="E74" s="14"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="7"/>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="4">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="8"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="14"/>
       <c r="D75" s="8"/>
       <c r="E75" s="14"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="7"/>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="4">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="8"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="14"/>
       <c r="D76" s="8"/>
       <c r="E76" s="14"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="7"/>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="4">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="8"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="8"/>
       <c r="E77" s="14"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="7"/>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="4">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="8"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="14"/>
       <c r="D78" s="8"/>
       <c r="E78" s="14"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="7"/>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="4">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="8"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="8"/>
       <c r="E79" s="14"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="7"/>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="8"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="14"/>
       <c r="D80" s="8"/>
       <c r="E80" s="14"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="7"/>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="4">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="8"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="8"/>
       <c r="E81" s="14"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
-      <c r="H81" s="7"/>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="7"/>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="4">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="8"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="14"/>
       <c r="D82" s="8"/>
       <c r="E82" s="14"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="7"/>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="4">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="8"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="14"/>
       <c r="D83" s="8"/>
       <c r="E83" s="14"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
-      <c r="H83" s="7"/>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="7"/>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="4">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="8"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="8"/>
       <c r="E84" s="14"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
-      <c r="H84" s="7"/>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="7"/>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="4">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="8"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="14"/>
       <c r="D85" s="8"/>
       <c r="E85" s="14"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
-      <c r="H85" s="7"/>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="7"/>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="4">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="8"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="14"/>
       <c r="D86" s="8"/>
       <c r="E86" s="14"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
-      <c r="H86" s="7"/>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="7"/>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="4">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="8"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="14"/>
       <c r="D87" s="8"/>
       <c r="E87" s="14"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
-      <c r="H87" s="7"/>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="7"/>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="4">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="8"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="14"/>
       <c r="D88" s="8"/>
       <c r="E88" s="14"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
-      <c r="H88" s="7"/>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="7"/>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="4">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="8"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="14"/>
       <c r="D89" s="8"/>
       <c r="E89" s="14"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
-      <c r="H89" s="7"/>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="7"/>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="4">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="8"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="14"/>
       <c r="D90" s="8"/>
       <c r="E90" s="14"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
-      <c r="H90" s="7"/>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="7"/>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="4">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="8"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="14"/>
       <c r="D91" s="8"/>
       <c r="E91" s="14"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
-      <c r="H91" s="7"/>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="7"/>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="4">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="8"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="14"/>
       <c r="D92" s="8"/>
       <c r="E92" s="14"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
-      <c r="H92" s="7"/>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="7"/>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="4">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="8"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="14"/>
       <c r="D93" s="8"/>
       <c r="E93" s="14"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
-      <c r="H93" s="7"/>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="7"/>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="4">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="8"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="14"/>
       <c r="D94" s="8"/>
       <c r="E94" s="14"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
-      <c r="H94" s="7"/>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="7"/>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="4">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="8"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="14"/>
       <c r="D95" s="8"/>
       <c r="E95" s="14"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
-      <c r="H95" s="7"/>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="7"/>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="4">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="8"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="14"/>
       <c r="D96" s="8"/>
       <c r="E96" s="14"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
-      <c r="H96" s="7"/>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="7"/>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="4">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="8"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="14"/>
       <c r="D97" s="8"/>
       <c r="E97" s="14"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
-      <c r="H97" s="7"/>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="7"/>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="4">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="8"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="14"/>
       <c r="D98" s="8"/>
       <c r="E98" s="14"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
-      <c r="H98" s="7"/>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="7"/>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="4">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="8"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="14"/>
       <c r="D99" s="8"/>
       <c r="E99" s="14"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
-      <c r="H99" s="7"/>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="7"/>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="4">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="8"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="14"/>
       <c r="D100" s="8"/>
       <c r="E100" s="14"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
-      <c r="H100" s="7"/>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="7"/>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="4">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B101" s="4"/>
-      <c r="C101" s="8"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="14"/>
       <c r="D101" s="8"/>
       <c r="E101" s="14"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
-      <c r="H101" s="7"/>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="7"/>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="4">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="8"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="14"/>
       <c r="D102" s="8"/>
       <c r="E102" s="14"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
-      <c r="H102" s="7"/>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="7"/>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="4">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="8"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="14"/>
       <c r="D103" s="8"/>
       <c r="E103" s="14"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
-      <c r="H103" s="7"/>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="7"/>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B104" s="4"/>
-      <c r="C104" s="8"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="14"/>
       <c r="D104" s="8"/>
       <c r="E104" s="14"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
-      <c r="H104" s="7"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3216,7 +3531,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3254,78 +3569,78 @@
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
+      <c r="D4" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="40"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
     </row>
     <row r="5" spans="1:18" s="25" customFormat="1" ht="22.5">
       <c r="A5" s="22" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="30" t="s">
+      <c r="D5" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="30" t="s">
+      <c r="F5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="30" t="s">
+      <c r="H5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="34" t="s">
-        <v>47</v>
+      <c r="I5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>66</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="55.5">
@@ -3334,46 +3649,46 @@
         <v>1</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>53</v>
+        <v>69</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="36">
+        <v>73</v>
+      </c>
+      <c r="I6" s="33">
         <v>1</v>
       </c>
-      <c r="J6" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="36">
+      <c r="J6" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="33">
         <v>1</v>
       </c>
-      <c r="L6" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="36" t="s">
-        <v>59</v>
+      <c r="L6" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="5"/>
@@ -3385,46 +3700,46 @@
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I7" s="5">
         <v>1</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="K7" s="5">
         <v>1</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="5"/>
@@ -3436,46 +3751,46 @@
         <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="K8" s="5">
         <v>1</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -3671,7 +3986,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="11"/>
@@ -3696,7 +4011,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="11"/>
@@ -3721,7 +4036,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="11"/>
@@ -3746,7 +4061,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="11"/>
@@ -3771,7 +4086,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="11"/>
@@ -3796,7 +4111,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="11"/>
@@ -3821,7 +4136,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="11"/>
@@ -3846,7 +4161,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="11"/>
@@ -3871,7 +4186,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="11"/>
@@ -3896,7 +4211,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="11"/>
@@ -3921,7 +4236,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
@@ -3946,7 +4261,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
@@ -3971,7 +4286,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="11"/>

--- a/test_case/unit-test-case.xlsx
+++ b/test_case/unit-test-case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-unit-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5447C7C-AD8E-41DF-A12A-5AC8A6B51A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AF8468D-2BA9-4D33-84F6-DE460FB5C2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,12 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="126">
   <si>
     <t>テストID</t>
   </si>
   <si>
-    <t>テストケース</t>
+    <t>テスト項目</t>
   </si>
   <si>
     <t>テスト観点</t>
@@ -60,7 +60,7 @@
     <t>Firefox</t>
   </si>
   <si>
-    <t>Internet Explorer</t>
+    <t>Edge</t>
   </si>
   <si>
     <t>実施日</t>
@@ -73,189 +73,305 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>全ての入力項目に正常な値を入力する</t>
-  </si>
-  <si>
-    <t>正常な値で入力すると確認画面へ遷移できるかどうか</t>
-  </si>
-  <si>
-    <t>1.名前（姓）へ「山田」を入力する
-2.名前（名）へ「太郎」を入力する
-3.カナ（姓）へ「ヤマダ」を入力する
-4.カナ（名）へ「タロウ」を入力する
-5.メールアドレスへ「test@test.com」を入力する
-6.パスワードへ「abc123」を入力する
-7.性別へ「男」を選択する
-8.郵便番号へ「1234567」を入力する
-9.住所（都道府県）のリストから「東京都」を選択する
-10.住所（市区町村）へ「渋谷区」を入力する
-11.住所（番地）へ「1-1-1」を入力する
-12.アカウント権限のリストから「一般」を選択する
-13.【確認】ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>確認画面へ遷移する</t>
-  </si>
-  <si>
-    <t>OKorNG</t>
-  </si>
-  <si>
-    <t>名前（姓）へ10文字まで入力できる</t>
-  </si>
-  <si>
-    <t>入力文字数が制限出来ているか</t>
-  </si>
-  <si>
-    <t>1.「名前（姓）」の入力フォームは「10文字」まで入力する
-2.【確認】ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>10文字まで入力できる</t>
-  </si>
-  <si>
-    <t>名前（姓）へ「ひらがな」と「漢字」で入力されていれば、確認画面へ遷移できる</t>
-  </si>
-  <si>
-    <t>入力文字種別に対するバリデーションが機能しているか</t>
-  </si>
-  <si>
-    <t>1.「名前（姓）」の入力フォームへ「ひらがな」と「漢字」で入力する
-2.確認ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>名前（姓）へ入力がなければ、エラーが表示される</t>
-  </si>
-  <si>
-    <t>未入力に対するバリデーションが機能しているか</t>
+    <t>名前（姓）</t>
+  </si>
+  <si>
+    <t>未入力エラーの表示がされるか</t>
   </si>
   <si>
     <t>1.「名前（姓）」の入力フォームには入力しない
 2.確認ボタンをクリックする</t>
   </si>
   <si>
-    <t>入力欄の下に「名前（姓）が未入力です。」とエラーメッセージが表示される</t>
-  </si>
-  <si>
-    <t>名前（名）へ10文字までの入力であれば、確認画面へ遷移できる</t>
-  </si>
-  <si>
-    <t>「10文字」まで入力できる</t>
-  </si>
-  <si>
-    <t>1.アカウント登録画面を開く
-2.「名前（名）」の入力フォームへ「10文字」入力する</t>
-  </si>
-  <si>
-    <t>10文字すべて入力できる</t>
+    <t>入力欄の下に「名前（姓）が未入力です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>OKorNG</t>
+  </si>
+  <si>
+    <t>許容外文字種エラーが表示されるか</t>
+  </si>
+  <si>
+    <t>1.「名前（姓）」の入力フォームへひらがなと漢字「以外」で入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「ひらがなと漢字で入力してください」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>入力文字数の制限ができているか</t>
+  </si>
+  <si>
+    <t>1.「名前（姓）」の入力フォームへ「11文字」入力する</t>
+  </si>
+  <si>
+    <t>入力欄に10文字目まで表示される</t>
+  </si>
+  <si>
+    <t>正常入力</t>
+  </si>
+  <si>
+    <t>1.「名前（姓）」の入力フォームへ「ひらがな、漢字」、「10文字以内」で入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>他の項目でエラーがなければ、確認画面へ遷移する</t>
   </si>
   <si>
     <t>名前（名）</t>
   </si>
   <si>
-    <t>「ひらがな」と「漢字」で入力できる</t>
-  </si>
-  <si>
-    <t>1.アカウント登録画面を開く
-2.「名前（姓）」の入力フォームへ「ひらがな」と「漢字」で入力する</t>
+    <t>1.「名前（名）」の入力フォームには入力しない
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「名前（名）が未入力です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.「名前（名）」の入力フォームへひらがなと漢字「以外」で入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>1.「名前（名）」の入力フォームへ「11文字」入力する</t>
+  </si>
+  <si>
+    <t>1.「名前（名）」の入力フォームへ「ひらがな」と「漢字」、「10文字以内」で入力する
+2.確認ボタンをクリックする</t>
   </si>
   <si>
     <t>カナ（姓）</t>
   </si>
   <si>
-    <t>1.アカウント登録画面を開く
-2.「カナ（姓）」の入力フォームへ「10文字」入力する</t>
-  </si>
-  <si>
-    <t>「カタカナ」で入力できる</t>
-  </si>
-  <si>
-    <t>1.アカウント登録画面を開く
-2.「カナ（姓）」の入力フォームへ「カタカナ」で入力する</t>
+    <t>1.「カナ（姓）」の入力フォームには入力しない
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「カナ（姓）が未入力です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.「カナ（姓）」の入力フォームへカタカナ「以外」で入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「カタカナで入力してください」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.「カナ（姓）」の入力フォームへ「11文字」入力する</t>
+  </si>
+  <si>
+    <t>1.「カナ（姓）」の入力フォームへ「カタカナ」、「10文字以内」で入力する
+2.確認ボタンをクリックする</t>
   </si>
   <si>
     <t>カナ（名）</t>
   </si>
   <si>
-    <t>「カタカナ」で入力すると登録できる</t>
+    <t>1.「カナ（名）」の入力フォームには入力しない
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「カナ（名）が未入力です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.「カナ（名）」の入力フォームへカタカナ「以外」で入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>1.「カナ（名）」の入力フォームへ「11文字」入力する</t>
+  </si>
+  <si>
+    <t>1.「カナ（名）」の入力フォームへ「カタカナ」、「10文字以内」で入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>1.「パスワード」の入力フォームには入力しない
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「パスワードが未入力です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.「パスワード」の入力フォームへ半角英数字「以外」で入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「パスワードは英数字のみ使用可能です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.「パスワード」の入力フォームへ「11文字」入力する</t>
+  </si>
+  <si>
+    <t>入力した文字が「●」の伏字になっているか</t>
+  </si>
+  <si>
+    <t>1.「パスワード」の入力フォームへ「半角英数字」、「10文字以内」で入力する</t>
+  </si>
+  <si>
+    <t>入力欄に入力した文字数分「●」が表示される</t>
+  </si>
+  <si>
+    <t>1.「パスワード」の入力フォームへ「半角英数字」、「10文字以内」で入力する
+2.確認ボタンをクリックする</t>
   </si>
   <si>
     <t>メールアドレス</t>
   </si>
   <si>
-    <t>「100文字」まで入力できる</t>
-  </si>
-  <si>
-    <t>1.アカウント登録画面を開く
-2.「メールアドレス」の入力フォームへ「100文字」入力する</t>
-  </si>
-  <si>
-    <t>100文字すべて入力できる</t>
-  </si>
-  <si>
-    <t>「半角英数字」、「半角記号（ハイフンとアットマーク）」で入力すると登録できる</t>
-  </si>
-  <si>
-    <t>1.アカウント登録画面を開く
-2.「メールアドレス」の入力フォームへ「半角英数字」と「半角記号（ハイフンとアットマーク）」入力する</t>
-  </si>
-  <si>
-    <t>「半角英数字」と「半角記号（ハイフンとアットマーク）」で入力できる</t>
-  </si>
-  <si>
-    <t>パスワード</t>
-  </si>
-  <si>
-    <t>1.アカウント登録画面を開く
-2.「パスワード」の入力フォームへ「10文字」入力する</t>
-  </si>
-  <si>
-    <t>「半角英数字」で入力すると登録できる</t>
-  </si>
-  <si>
-    <t>1.アカウント登録画面を開く
-2.「パスワード」の入力フォームへ「半角英数字」入力する</t>
+    <t>1.「メールアドレス」の入力フォームには入力しない
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「メールアドレスが未入力です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.「メールアドレス」の入力フォームへ半角英数字、半角記号（ハイフンとアットマーク）「以外」で入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「メールアドレスは英数字と一部の記号のみ使用可能です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.「メールアドレス」の入力フォームへ「101文字」入力する</t>
+  </si>
+  <si>
+    <t>入力欄に100文字目まで表示される</t>
+  </si>
+  <si>
+    <t>1.「メールアドレス」の入力フォームへ「半角英数字、半角記号（ハイフンとアットマーク）」、「101文字以内」で入力する
+2.確認ボタンをクリックする</t>
   </si>
   <si>
     <t>性別</t>
   </si>
   <si>
-    <t>「男」か「女」が選択できる</t>
-  </si>
-  <si>
-    <t>1.アカウント登録画面を開く
-2.「性別」の選択欄で「男」か「女」のラジオボタンをクリックする</t>
+    <t>初期値が「男」となっているか</t>
+  </si>
+  <si>
+    <t>1.操作していない状態の「性別」のラジオボタンのうち選択されている性別を見る</t>
+  </si>
+  <si>
+    <t>初期値として「男」が選択されている</t>
+  </si>
+  <si>
+    <t>1.「性別」のラジオボタンのうち、「男」か「女」を選択する
+2.確認ボタンをクリックする</t>
   </si>
   <si>
     <t>郵便番号</t>
   </si>
   <si>
+    <t>1.「郵便番号」の入力フォームには入力しない
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「郵便番号が未入力です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.「郵便番号」の入力フォームへ半角数字「以外」で入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「郵便番号は半角数字7桁で入力してください」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.「郵便番号」の入力フォームへ「8文字」入力する</t>
+  </si>
+  <si>
+    <t>入力欄に7文字目まで表示される</t>
+  </si>
+  <si>
+    <t>1.「郵便番号」の入力フォームへ「カタカナ」、「7文字以内」で入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
     <t>住所（都道府県）</t>
   </si>
   <si>
+    <t>1.「住所（都道府県）」は「空欄」を選択する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「都道府県が未選択です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>初期値が「空欄」となっているか</t>
+  </si>
+  <si>
+    <t>1.操作していない状態の「住所（都道府県）」のラジオボタンのうち選択されている項目を見る</t>
+  </si>
+  <si>
+    <t>初期値として「空欄」が選択されている</t>
+  </si>
+  <si>
+    <t>1.「住所（都道府県）」のリストから空欄「以外」を選択する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
     <t>住所（市区町村）</t>
   </si>
   <si>
+    <t>1.「住所（市区町村）」の入力フォームには入力しない
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>1.「住所（市区町村）」の入力フォームへひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）「以外」で入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>1.「住所（市区町村）」の入力フォームへ「11文字」入力する</t>
+  </si>
+  <si>
+    <t>1.「住所（市区町村）」の入力フォームへ「ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）」、「10文字以内」で入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
     <t>住所（番地）</t>
   </si>
   <si>
+    <t>1.「住所（番地）」の入力フォームには入力しない
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>1.「住所（番地）」の入力フォームへひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）「以外」で入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>1.「住所（番地）」の入力フォームへ「101文字」入力する</t>
+  </si>
+  <si>
+    <t>1.「住所（番地）」の入力フォームへ「ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）」、「100文字以内」で入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
     <t>アカウント権限</t>
   </si>
   <si>
+    <t>初期値が「一般」となっているか</t>
+  </si>
+  <si>
+    <t>1.操作していない状態の「アカウント権限」のリストのうち選択されている項目を見る</t>
+  </si>
+  <si>
+    <t>初期値として「一般」が選択されている</t>
+  </si>
+  <si>
+    <t>1.「アカウント権限」のリストから、「一般」もしくは「管理者」を選択する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
     <t>【確認する】ボタン</t>
   </si>
   <si>
-    <t>未入力項目があると登録できない</t>
-  </si>
-  <si>
-    <t>エラー項目があると登録できない</t>
+    <t>未入力項目があると確認画面へ遷移せず、エラーが表示されるか</t>
+  </si>
+  <si>
+    <t>許容外文字種の入力があると確認画面へ遷移せず、エラーが表示される</t>
   </si>
   <si>
     <t>エラー項目がない場合、確認画面に遷移する</t>
-  </si>
-  <si>
-    <t>1.名前（姓）へ「山田」を入力する
-2.名前（名）へ「太郎」を入力する
-3.カナ（姓）へ「ヤマダ」を入力する</t>
   </si>
   <si>
     <t>入力内容</t>
@@ -271,9 +387,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>名前（姓）</t>
-  </si>
-  <si>
     <t>実施日</t>
     <rPh sb="0" eb="3">
       <t>ジッシビ</t>
@@ -350,6 +463,12 @@
   </si>
   <si>
     <t>空欄選択状態で登録できない</t>
+  </si>
+  <si>
+    <t>未入力項目があると登録できない</t>
+  </si>
+  <si>
+    <t>エラー項目があると登録できない</t>
   </si>
 </sst>
 </file>
@@ -360,7 +479,7 @@
     <numFmt numFmtId="176" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -395,6 +514,20 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Yu Gothic"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -581,7 +714,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -654,9 +787,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -704,6 +834,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1801,16 +1937,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA9AF38-7352-4E06-B242-52066A65ADD8}">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="41.5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="53.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.75" style="15" customWidth="1"/>
     <col min="5" max="5" width="53.625" style="15" customWidth="1"/>
     <col min="6" max="8" width="12.75" style="3" customWidth="1"/>
     <col min="9" max="9" width="11.75" style="2" customWidth="1"/>
@@ -1819,23 +1955,23 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1"/>
-      <c r="B1" s="36"/>
+      <c r="B1" s="35"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1"/>
-      <c r="B2" s="36"/>
+      <c r="B2" s="35"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
-      <c r="B3" s="36"/>
-    </row>
-    <row r="4" spans="1:10" s="25" customFormat="1" ht="22.5">
+      <c r="B3" s="35"/>
+    </row>
+    <row r="4" spans="1:10" s="24" customFormat="1" ht="22.5">
       <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
@@ -1845,10 +1981,10 @@
       <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="22" t="s">
@@ -1867,15 +2003,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="238.5">
+    <row r="5" spans="1:10" ht="36.75">
       <c r="A5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -1896,68 +2032,62 @@
       <c r="I5" s="5"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="36.75">
+    <row r="6" spans="1:10" ht="55.5">
       <c r="A6" s="4">
-        <f>ROW()-4</f>
+        <f t="shared" ref="A6:A70" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="55.5">
+    <row r="7" spans="1:10" ht="36.75">
       <c r="A7" s="4">
-        <f t="shared" ref="A7:A70" si="0">ROW()-4</f>
+        <f>ROW()-4</f>
         <v>3</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="5"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="36.75">
+    <row r="8" spans="1:10" ht="55.5">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1970,17 +2100,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1988,67 +2118,82 @@
       <c r="I9" s="5"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="55.5">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="36.75">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="55.5">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="55.5">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="37" t="s">
+    <row r="13" spans="1:10" ht="36.75">
+      <c r="A13" s="4"/>
+      <c r="B13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -2056,22 +2201,20 @@
       <c r="I13" s="5"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="36.75">
+    <row r="14" spans="1:10" ht="55.5">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="E14" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -2084,17 +2227,15 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>33</v>
-      </c>
+      <c r="B15" s="36"/>
       <c r="C15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="E15" s="14" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -2102,22 +2243,20 @@
       <c r="I15" s="5"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" ht="36.75">
+    <row r="16" spans="1:10" ht="55.5">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>37</v>
-      </c>
+      <c r="B16" s="36"/>
       <c r="C16" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -2130,17 +2269,17 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="E17" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -2148,22 +2287,20 @@
       <c r="I17" s="5"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="36.75">
+    <row r="18" spans="1:10" ht="55.5">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>41</v>
-      </c>
       <c r="E18" s="14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -2171,22 +2308,20 @@
       <c r="I18" s="5"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="55.5">
+    <row r="19" spans="1:10" ht="36.75">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="37" t="s">
-        <v>39</v>
-      </c>
+      <c r="B19" s="36"/>
       <c r="C19" s="14" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -2194,21 +2329,21 @@
       <c r="I19" s="5"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" ht="36.75">
+    <row r="20" spans="1:10" ht="55.5">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="37" t="s">
-        <v>46</v>
-      </c>
+      <c r="B20" s="36"/>
       <c r="C20" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -2220,16 +2355,18 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>48</v>
+      <c r="B21" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>11</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -2241,466 +2378,618 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>51</v>
+      <c r="B22" s="36"/>
+      <c r="C22" s="40" t="s">
+        <v>15</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="14"/>
+        <v>46</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" ht="36.75">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="14"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" ht="36.75">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="14"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="55.5">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="14"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" ht="55.5">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="14"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" ht="73.5">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="14"/>
+      <c r="E27" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" ht="36.75">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="14"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="73.5">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="37" t="s">
-        <v>58</v>
-      </c>
+      <c r="B29" s="36"/>
       <c r="C29" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" ht="36.75">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="14"/>
+      <c r="B30" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" ht="55.5">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="37" t="s">
-        <v>58</v>
-      </c>
+      <c r="B31" s="36"/>
       <c r="C31" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" ht="36.75">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="14"/>
+      <c r="B32" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="55.5">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="14"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" ht="55.5">
+    <row r="34" spans="1:10" ht="36.75">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="37" t="s">
-        <v>10</v>
-      </c>
+      <c r="B34" s="36"/>
       <c r="C34" s="14" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" ht="55.5">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="14"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" ht="36.75">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="14"/>
+      <c r="B36" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" ht="36.75">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="14"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" ht="55.5">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="14"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" ht="55.5">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="14"/>
+      <c r="B39" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" ht="73.5">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="14"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" ht="36.75">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="14"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" ht="73.5">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="14"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" ht="55.5">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="14"/>
+      <c r="B43" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" ht="73.5">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="14"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" ht="36.75">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="14"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" ht="73.5">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="14"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" ht="36.75">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="14"/>
+      <c r="B47" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" ht="55.5">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="14"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" ht="36.75">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="14"/>
+      <c r="B49" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" ht="36.75">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="14"/>
+      <c r="B50" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -2712,10 +3001,16 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="14"/>
+      <c r="B51" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -2727,9 +3022,9 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B52" s="37"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="8"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -2742,9 +3037,9 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B53" s="37"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="8"/>
+      <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
@@ -2757,9 +3052,9 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B54" s="37"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="8"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -2772,9 +3067,9 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B55" s="37"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="8"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -2787,9 +3082,9 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B56" s="37"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="8"/>
+      <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -2802,9 +3097,9 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B57" s="37"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="14"/>
-      <c r="D57" s="8"/>
+      <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
@@ -2817,9 +3112,9 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B58" s="37"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="14"/>
-      <c r="D58" s="8"/>
+      <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
@@ -2832,9 +3127,9 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B59" s="37"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="14"/>
-      <c r="D59" s="8"/>
+      <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -2847,9 +3142,9 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B60" s="37"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="8"/>
+      <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -2862,9 +3157,9 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B61" s="37"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="8"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -2877,9 +3172,9 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B62" s="37"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="8"/>
+      <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -2892,9 +3187,9 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B63" s="37"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="8"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -2907,9 +3202,9 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B64" s="37"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="8"/>
+      <c r="D64" s="14"/>
       <c r="E64" s="14"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -2922,9 +3217,9 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B65" s="37"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="14"/>
-      <c r="D65" s="8"/>
+      <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -2937,9 +3232,9 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B66" s="37"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="14"/>
-      <c r="D66" s="8"/>
+      <c r="D66" s="14"/>
       <c r="E66" s="14"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -2952,9 +3247,9 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B67" s="37"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="14"/>
-      <c r="D67" s="8"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="14"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -2967,9 +3262,9 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B68" s="37"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="14"/>
-      <c r="D68" s="8"/>
+      <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -2982,9 +3277,9 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B69" s="37"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="14"/>
-      <c r="D69" s="8"/>
+      <c r="D69" s="14"/>
       <c r="E69" s="14"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -2997,9 +3292,9 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B70" s="37"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="14"/>
-      <c r="D70" s="8"/>
+      <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -3012,9 +3307,9 @@
         <f t="shared" ref="A71:A104" si="1">ROW()-4</f>
         <v>67</v>
       </c>
-      <c r="B71" s="37"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="14"/>
-      <c r="D71" s="8"/>
+      <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -3027,9 +3322,9 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B72" s="37"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="14"/>
-      <c r="D72" s="8"/>
+      <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -3042,9 +3337,9 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B73" s="37"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="14"/>
-      <c r="D73" s="8"/>
+      <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -3057,9 +3352,9 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B74" s="37"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="14"/>
-      <c r="D74" s="8"/>
+      <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -3072,9 +3367,9 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B75" s="37"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="14"/>
-      <c r="D75" s="8"/>
+      <c r="D75" s="14"/>
       <c r="E75" s="14"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
@@ -3087,9 +3382,9 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B76" s="37"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="14"/>
-      <c r="D76" s="8"/>
+      <c r="D76" s="14"/>
       <c r="E76" s="14"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -3102,9 +3397,9 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B77" s="37"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="14"/>
-      <c r="D77" s="8"/>
+      <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
@@ -3117,9 +3412,9 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B78" s="37"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="14"/>
-      <c r="D78" s="8"/>
+      <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -3132,9 +3427,9 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B79" s="37"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="14"/>
-      <c r="D79" s="8"/>
+      <c r="D79" s="14"/>
       <c r="E79" s="14"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
@@ -3147,9 +3442,9 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B80" s="37"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="14"/>
-      <c r="D80" s="8"/>
+      <c r="D80" s="14"/>
       <c r="E80" s="14"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -3162,9 +3457,9 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B81" s="37"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="14"/>
-      <c r="D81" s="8"/>
+      <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
@@ -3177,9 +3472,9 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B82" s="37"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="14"/>
-      <c r="D82" s="8"/>
+      <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -3192,9 +3487,9 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B83" s="37"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="14"/>
-      <c r="D83" s="8"/>
+      <c r="D83" s="14"/>
       <c r="E83" s="14"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -3207,9 +3502,9 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B84" s="37"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="14"/>
-      <c r="D84" s="8"/>
+      <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -3222,9 +3517,9 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B85" s="37"/>
+      <c r="B85" s="36"/>
       <c r="C85" s="14"/>
-      <c r="D85" s="8"/>
+      <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -3237,9 +3532,9 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B86" s="37"/>
+      <c r="B86" s="36"/>
       <c r="C86" s="14"/>
-      <c r="D86" s="8"/>
+      <c r="D86" s="14"/>
       <c r="E86" s="14"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
@@ -3252,9 +3547,9 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B87" s="37"/>
+      <c r="B87" s="36"/>
       <c r="C87" s="14"/>
-      <c r="D87" s="8"/>
+      <c r="D87" s="14"/>
       <c r="E87" s="14"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
@@ -3267,9 +3562,9 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B88" s="37"/>
+      <c r="B88" s="36"/>
       <c r="C88" s="14"/>
-      <c r="D88" s="8"/>
+      <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
@@ -3282,9 +3577,9 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B89" s="37"/>
+      <c r="B89" s="36"/>
       <c r="C89" s="14"/>
-      <c r="D89" s="8"/>
+      <c r="D89" s="14"/>
       <c r="E89" s="14"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -3297,9 +3592,9 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B90" s="37"/>
+      <c r="B90" s="36"/>
       <c r="C90" s="14"/>
-      <c r="D90" s="8"/>
+      <c r="D90" s="14"/>
       <c r="E90" s="14"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -3312,9 +3607,9 @@
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B91" s="37"/>
+      <c r="B91" s="36"/>
       <c r="C91" s="14"/>
-      <c r="D91" s="8"/>
+      <c r="D91" s="14"/>
       <c r="E91" s="14"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -3327,9 +3622,9 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B92" s="37"/>
+      <c r="B92" s="36"/>
       <c r="C92" s="14"/>
-      <c r="D92" s="8"/>
+      <c r="D92" s="14"/>
       <c r="E92" s="14"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -3342,9 +3637,9 @@
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B93" s="37"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="14"/>
-      <c r="D93" s="8"/>
+      <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
@@ -3357,9 +3652,9 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B94" s="37"/>
+      <c r="B94" s="36"/>
       <c r="C94" s="14"/>
-      <c r="D94" s="8"/>
+      <c r="D94" s="14"/>
       <c r="E94" s="14"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
@@ -3372,9 +3667,9 @@
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B95" s="37"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="14"/>
-      <c r="D95" s="8"/>
+      <c r="D95" s="14"/>
       <c r="E95" s="14"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
@@ -3387,9 +3682,9 @@
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B96" s="37"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="14"/>
-      <c r="D96" s="8"/>
+      <c r="D96" s="14"/>
       <c r="E96" s="14"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
@@ -3402,9 +3697,9 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B97" s="37"/>
+      <c r="B97" s="36"/>
       <c r="C97" s="14"/>
-      <c r="D97" s="8"/>
+      <c r="D97" s="14"/>
       <c r="E97" s="14"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
@@ -3417,9 +3712,9 @@
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B98" s="37"/>
+      <c r="B98" s="36"/>
       <c r="C98" s="14"/>
-      <c r="D98" s="8"/>
+      <c r="D98" s="14"/>
       <c r="E98" s="14"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
@@ -3432,9 +3727,9 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B99" s="37"/>
+      <c r="B99" s="36"/>
       <c r="C99" s="14"/>
-      <c r="D99" s="8"/>
+      <c r="D99" s="14"/>
       <c r="E99" s="14"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
@@ -3447,9 +3742,9 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B100" s="37"/>
+      <c r="B100" s="36"/>
       <c r="C100" s="14"/>
-      <c r="D100" s="8"/>
+      <c r="D100" s="14"/>
       <c r="E100" s="14"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
@@ -3462,9 +3757,9 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B101" s="37"/>
+      <c r="B101" s="36"/>
       <c r="C101" s="14"/>
-      <c r="D101" s="8"/>
+      <c r="D101" s="14"/>
       <c r="E101" s="14"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
@@ -3477,9 +3772,9 @@
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B102" s="37"/>
+      <c r="B102" s="36"/>
       <c r="C102" s="14"/>
-      <c r="D102" s="8"/>
+      <c r="D102" s="14"/>
       <c r="E102" s="14"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
@@ -3492,9 +3787,9 @@
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B103" s="37"/>
+      <c r="B103" s="36"/>
       <c r="C103" s="14"/>
-      <c r="D103" s="8"/>
+      <c r="D103" s="14"/>
       <c r="E103" s="14"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
@@ -3507,9 +3802,9 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B104" s="37"/>
+      <c r="B104" s="36"/>
       <c r="C104" s="14"/>
-      <c r="D104" s="8"/>
+      <c r="D104" s="14"/>
       <c r="E104" s="14"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
@@ -3569,75 +3864,75 @@
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="40"/>
+      <c r="D4" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="39"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
     </row>
-    <row r="5" spans="1:18" s="25" customFormat="1" ht="22.5">
+    <row r="5" spans="1:18" s="24" customFormat="1" ht="22.5">
       <c r="A5" s="22" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="27" t="s">
+      <c r="H5" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" s="31" t="s">
+      <c r="I5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="26" t="s">
         <v>66</v>
       </c>
+      <c r="L5" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>102</v>
+      </c>
       <c r="Q5" s="22" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="R5" s="22" t="s">
         <v>9</v>
@@ -3649,46 +3944,46 @@
         <v>1</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>72</v>
+        <v>105</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>108</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="33">
+        <v>109</v>
+      </c>
+      <c r="I6" s="32">
         <v>1</v>
       </c>
-      <c r="J6" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="33">
+      <c r="J6" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="32">
         <v>1</v>
       </c>
-      <c r="L6" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" s="33" t="s">
-        <v>78</v>
+      <c r="L6" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>114</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="5"/>
@@ -3700,46 +3995,46 @@
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="I7" s="5">
         <v>1</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="K7" s="5">
         <v>1</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="5"/>
@@ -3751,46 +4046,46 @@
         <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="K8" s="5">
         <v>1</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -3986,7 +4281,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="11"/>
@@ -4011,7 +4306,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="11"/>
@@ -4036,7 +4331,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="11"/>
@@ -4061,7 +4356,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="11"/>
@@ -4086,7 +4381,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="11"/>
@@ -4111,7 +4406,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="11"/>
@@ -4136,7 +4431,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="11"/>
@@ -4161,7 +4456,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="11"/>
@@ -4186,7 +4481,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="11"/>
@@ -4211,7 +4506,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="11"/>
@@ -4236,7 +4531,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
@@ -4261,7 +4556,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
@@ -4286,7 +4581,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="11"/>

--- a/test_case/unit-test-case.xlsx
+++ b/test_case/unit-test-case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-unit-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AF8468D-2BA9-4D33-84F6-DE460FB5C2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45267F3E-D13A-4090-9651-7B487D1C2B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="132">
   <si>
     <t>テストID</t>
   </si>
@@ -135,7 +135,7 @@
     <t>1.「名前（名）」の入力フォームへ「11文字」入力する</t>
   </si>
   <si>
-    <t>1.「名前（名）」の入力フォームへ「ひらがな」と「漢字」、「10文字以内」で入力する
+    <t>1.「名前（名）」の入力フォームへ「ひらがな、漢字」、「10文字以内」で入力する
 2.確認ボタンをクリックする</t>
   </si>
   <si>
@@ -365,10 +365,42 @@
     <t>【確認する】ボタン</t>
   </si>
   <si>
-    <t>未入力項目があると確認画面へ遷移せず、エラーが表示されるか</t>
-  </si>
-  <si>
-    <t>許容外文字種の入力があると確認画面へ遷移せず、エラーが表示される</t>
+    <t>未入力についてチェックが行われるか</t>
+  </si>
+  <si>
+    <t>1.入力フォームには何も入力しない
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>未入力項目があると確認画面へ遷移せず、入力欄の下にエラーが表示される</t>
+  </si>
+  <si>
+    <t>許容外文字種についてチェックが行われるか</t>
+  </si>
+  <si>
+    <t>1.「名前（姓）」の入力フォームへ「カタカナ」で入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>許容外文字種の入力があると確認画面へ遷移せず、入力欄の下にエラーが表示される</t>
+  </si>
+  <si>
+    <t>画面遷移できるか</t>
+  </si>
+  <si>
+    <t>1.「名前（姓）」の入力フォームへ「山田」を入力する
+2.「名前（名）」の入力フォームへ「太郎」を入力する
+3.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
+4.「カナ（名）」の入力フォームへ「タロウ」を入力する
+5.「パスワード」の入力フォームへ「abc123」を入力する
+6.「メールアドレス」の入力フォームへ「test@mail.com」を入力する
+7.「性別」のリストから「男性」を選択する
+8.「郵便番号」の入力フォームへ「1234567」を入力する
+9.「住所（都道府県）」のリストから「東京都」を選択する
+10.「住所（市区町村）」の入力フォームへ「新宿区西新宿」を入力する
+11.「住所（番地）」の入力フォームへ「1-1-1」を入力する
+12.「アカウント権限」のリストから「一般」を選択する
+13.確認ボタンをクリックする</t>
   </si>
   <si>
     <t>エラー項目がない場合、確認画面に遷移する</t>
@@ -826,6 +858,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -834,12 +872,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1937,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA9AF38-7352-4E06-B242-52066A65ADD8}">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1946,7 +1978,7 @@
     <col min="1" max="1" width="9.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="43.75" style="15" customWidth="1"/>
+    <col min="4" max="4" width="53.875" style="15" customWidth="1"/>
     <col min="5" max="5" width="53.625" style="15" customWidth="1"/>
     <col min="6" max="8" width="12.75" style="3" customWidth="1"/>
     <col min="9" max="9" width="11.75" style="2" customWidth="1"/>
@@ -2011,7 +2043,7 @@
       <c r="B5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -2038,7 +2070,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="36"/>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="37" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -2103,7 +2135,7 @@
       <c r="B9" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -2124,7 +2156,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="37" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -2186,7 +2218,7 @@
       <c r="B13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -2207,7 +2239,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="36"/>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="37" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -2272,7 +2304,7 @@
       <c r="B17" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -2293,7 +2325,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="37" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -2358,7 +2390,7 @@
       <c r="B21" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -2379,7 +2411,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="37" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -2465,7 +2497,7 @@
       <c r="B26" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -2486,7 +2518,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="36"/>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="37" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -2551,7 +2583,7 @@
       <c r="B30" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="38" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -2595,7 +2627,7 @@
       <c r="B32" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="14" t="s">
@@ -2616,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="36"/>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="37" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="14" t="s">
@@ -2681,7 +2713,7 @@
       <c r="B36" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="14" t="s">
@@ -2746,7 +2778,7 @@
       <c r="B39" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="14" t="s">
@@ -2767,7 +2799,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="36"/>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="37" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="14" t="s">
@@ -2832,7 +2864,7 @@
       <c r="B43" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="14" t="s">
@@ -2853,7 +2885,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="36"/>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="37" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="14" t="s">
@@ -2962,12 +2994,14 @@
       <c r="B49" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="14"/>
+      <c r="C49" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="E49" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -2975,20 +3009,20 @@
       <c r="I49" s="5"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="1:10" ht="36.75">
+    <row r="50" spans="1:10" ht="55.5">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B50" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="14"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="E50" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -2996,20 +3030,20 @@
       <c r="I50" s="5"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" ht="275.25">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B51" s="36" t="s">
-        <v>96</v>
-      </c>
+      <c r="B51" s="36"/>
       <c r="C51" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="14"/>
+        <v>103</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="E51" s="14" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -3825,7 +3859,7 @@
   <dimension ref="A1:R105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="B6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3864,27 +3898,27 @@
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="39"/>
+      <c r="D4" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="41"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
     </row>
     <row r="5" spans="1:18" s="24" customFormat="1" ht="22.5">
       <c r="A5" s="22" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>2</v>
@@ -3929,10 +3963,10 @@
         <v>91</v>
       </c>
       <c r="P5" s="30" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="R5" s="22" t="s">
         <v>9</v>
@@ -3944,46 +3978,46 @@
         <v>1</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I6" s="32">
         <v>1</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K6" s="32">
         <v>1</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="5"/>
@@ -3995,46 +4029,46 @@
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="I7" s="5">
         <v>1</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K7" s="5">
         <v>1</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="5"/>
@@ -4046,46 +4080,46 @@
         <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K8" s="5">
         <v>1</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -4281,7 +4315,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="11"/>
@@ -4306,7 +4340,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="11"/>
@@ -4331,7 +4365,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="11"/>
@@ -4356,7 +4390,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="11"/>
@@ -4381,7 +4415,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="11"/>
@@ -4406,7 +4440,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="11"/>
@@ -4431,7 +4465,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="11"/>
@@ -4456,7 +4490,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="11"/>
@@ -4481,7 +4515,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="11"/>
@@ -4506,7 +4540,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="11"/>
@@ -4531,7 +4565,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
@@ -4556,7 +4590,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
@@ -4581,7 +4615,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="11"/>

--- a/test_case/unit-test-case.xlsx
+++ b/test_case/unit-test-case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-unit-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F87F744-A3F8-4226-81FE-9E00A0502D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B1D0FD9-02E5-44E2-8FDD-AFDAD37EB789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="完了画面" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="147">
   <si>
     <t>テストID</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>実施日</t>
+  </si>
+  <si>
+    <t>実施者</t>
   </si>
   <si>
     <t>備考</t>
@@ -83,9 +86,18 @@
     <t>画面中央に大きく「登録完了しました」のテキストが表示されている</t>
   </si>
   <si>
+    <t>NG</t>
+  </si>
+  <si>
     <t>OKorNG</t>
   </si>
   <si>
+    <t>河本</t>
+  </si>
+  <si>
+    <t>中央ではない</t>
+  </si>
+  <si>
     <t>【TOPへ戻る】ボタン</t>
   </si>
   <si>
@@ -98,14 +110,18 @@
     <t>カーソルを合わせている間、【TOPへ戻る】ボタンが下がる</t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>クリック時、ボタンの視覚的変化があるか</t>
   </si>
   <si>
     <t>1.【TOPへ戻る】ボタンにカーソルを合わせ、左クリックを押し続ける
-2.左クリックを辞める</t>
-  </si>
-  <si>
-    <t>左クリックを押し続けている間、【TOPへ戻る】ボタンが、カーソルを合わせた時よりも下がる。</t>
+2.【TOPへ戻る】ボタンからカーソルを外し、左クリックを離す</t>
+  </si>
+  <si>
+    <t>左クリックを押し続けている間、【TOPへ戻る】ボタンが、カーソルを合わせた時よりも下がり、
+カーソルを外して、左クリックを離すと、元に戻る</t>
   </si>
   <si>
     <t>画面遷移できるか</t>
@@ -117,20 +133,21 @@
     <t>ブログトップ画面「index.php」へ遷移する。</t>
   </si>
   <si>
+    <t>【前に戻る】ボタン</t>
+  </si>
+  <si>
+    <t>1.【戻る】ボタンへカーソルを合わせる</t>
+  </si>
+  <si>
     <t>カーソルを合わせている間、【前に戻る】ボタンが下がる</t>
   </si>
   <si>
-    <t>【前に戻る】ボタン</t>
-  </si>
-  <si>
-    <t>1.【戻る】ボタンへカーソルを合わせる</t>
-  </si>
-  <si>
     <t>1.【戻る】ボタンにカーソルを合わせ、左クリックを押し続ける
-2.左クリックを辞める</t>
-  </si>
-  <si>
-    <t>左クリックを押し続けている間、【前に戻る】ボタンが、カーソルを合わせた時よりも下がる。</t>
+2.【戻る】ボタンからカーソルを外し、左クリックを離す</t>
+  </si>
+  <si>
+    <t>左クリックを押し続けている間、【前に戻る】ボタンが、カーソルを合わせた時よりも下がり、
+カーソルを外して、左クリックを離すと、元に戻る</t>
   </si>
   <si>
     <t>1.【戻る】ボタンをクリックする</t>
@@ -146,13 +163,13 @@
   </si>
   <si>
     <t>1.【登録する】ボタンにカーソルを合わせ、左クリックを押し続ける
-2.左クリックを辞める</t>
+2.【登録する】ボタンからカーソルを外し、左クリックを離す</t>
   </si>
   <si>
     <t>1.【登録する】ボタンをクリックする</t>
   </si>
   <si>
-    <t>DB登録処理にエラーがなければ、アカウント登録画面「regist_complete.php」へ遷移する。</t>
+    <t>DB登録処理にエラーがなければ、アカウント登録完了画面「regist_complete.php」へ遷移する。</t>
   </si>
   <si>
     <t>名前（姓）</t>
@@ -242,6 +259,9 @@
 2.確認ボタンをクリックする</t>
   </si>
   <si>
+    <t>半角カタカナでは許容外文字種となる</t>
+  </si>
+  <si>
     <t>カナ（名）</t>
   </si>
   <si>
@@ -313,6 +333,9 @@
     <t>入力欄の下に「メールアドレスは英数字と一部の記号のみ使用可能です」とエラーメッセージが表示される</t>
   </si>
   <si>
+    <t>「a=@a」など@を挟んで、メールアドレスとして使用できる形式で入力しないと、判定されない</t>
+  </si>
+  <si>
     <t>1.「メールアドレス」の入力フォームへ「101文字」入力する</t>
   </si>
   <si>
@@ -362,8 +385,11 @@
     <t>入力欄に7文字目まで表示される</t>
   </si>
   <si>
-    <t>1.「郵便番号」の入力フォームへ「カタカナ」、「7文字以内」で入力する
+    <t>1.「郵便番号」の入力フォームへ「半角数字」、「7文字以内」で入力する
 2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>1～6文字では「郵便番号は半角数字7桁で入力してください」のエラーとなる</t>
   </si>
   <si>
     <t>住所（都道府県）</t>
@@ -396,10 +422,19 @@
 2.確認ボタンをクリックする</t>
   </si>
   <si>
+    <t>入力欄の下に「住所（市区町村）が未選択です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
     <t>1.「住所（市区町村）」の入力フォームへひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）「以外」で入力する
 2.確認ボタンをクリックする</t>
   </si>
   <si>
+    <t>入力欄の下に「住所（市区町村）は、ひらがな、漢字、数字、カタカナと一部の記号が使用可能です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>全角記号がスルーされる</t>
+  </si>
+  <si>
     <t>1.「住所（市区町村）」の入力フォームへ「11文字」入力する</t>
   </si>
   <si>
@@ -414,8 +449,14 @@
 2.確認ボタンをクリックする</t>
   </si>
   <si>
+    <t>入力欄の下に「住所（番地）が未入力です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
     <t>1.「住所（番地）」の入力フォームへひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）「以外」で入力する
 2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「住所（番地）は、ひらがな、漢字、数字、カタカナと一部の記号が使用可能です」とエラーメッセージが表示される</t>
   </si>
   <si>
     <t>1.「住所（番地）」の入力フォームへ「101文字」入力する</t>
@@ -480,6 +521,16 @@
   </si>
   <si>
     <t>エラー項目がない場合、確認画面に遷移する</t>
+  </si>
+  <si>
+    <t>1.【確認する】ボタンへカーソルを合わせる</t>
+  </si>
+  <si>
+    <t>1.【確認する】ボタンにカーソルを合わせ、左クリックを押し続ける
+2.【確認する】ボタンからカーソルを外し、左クリックを離す</t>
+  </si>
+  <si>
+    <t>1.【確認する】ボタンをクリックする</t>
   </si>
 </sst>
 </file>
@@ -971,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890A58AD-036D-485B-A457-79A622266E3B}">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -985,29 +1036,29 @@
     <col min="4" max="4" width="53.875" style="10" customWidth="1"/>
     <col min="5" max="5" width="53.625" style="10" customWidth="1"/>
     <col min="6" max="8" width="12.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="44.5" style="2" customWidth="1"/>
+    <col min="9" max="10" width="11.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1"/>
       <c r="B1" s="15"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" s="15"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="15"/>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="22.5">
+    <row r="4" spans="1:11" s="13" customFormat="1" ht="22.5">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1038,102 +1089,133 @@
       <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="36.75">
+      <c r="K4" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="36.75">
       <c r="A5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="36.75">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="36.75">
       <c r="A6" s="4">
         <f t="shared" ref="A6:A70" si="0">ROW()-4</f>
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="55.5">
+      <c r="I6" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="73.5">
       <c r="A7" s="4">
         <f>ROW()-4</f>
         <v>3</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1141,16 +1223,15 @@
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" s="5"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1163,9 +1244,10 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10" s="5"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1178,9 +1260,10 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" s="5"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1193,9 +1276,10 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="5"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -1207,9 +1291,10 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13" s="5"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1222,9 +1307,10 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="5"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1237,9 +1323,10 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15" s="5"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1252,9 +1339,10 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16" s="5"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1267,9 +1355,10 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="J17" s="5"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1282,9 +1371,10 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="J18" s="5"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1297,9 +1387,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="J19" s="5"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1312,9 +1403,10 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="J20" s="5"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1327,9 +1419,10 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="J21" s="5"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1342,9 +1435,10 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="J22" s="5"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1357,9 +1451,10 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="J23" s="5"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1372,9 +1467,10 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="J24" s="5"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1387,9 +1483,10 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="J25" s="5"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1402,9 +1499,10 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="J26" s="5"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1417,9 +1515,10 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="J27" s="5"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1432,9 +1531,10 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="J28" s="5"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1447,9 +1547,10 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="J29" s="5"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1462,9 +1563,10 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="J30" s="5"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1477,9 +1579,10 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="J31" s="5"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1492,9 +1595,10 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="J32" s="5"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1507,9 +1611,10 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="J33" s="5"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1522,9 +1627,10 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="J34" s="5"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1537,9 +1643,10 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="J35" s="5"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1552,9 +1659,10 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="J36" s="5"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1567,9 +1675,10 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="7"/>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="J37" s="5"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1582,9 +1691,10 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="7"/>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="J38" s="5"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1597,9 +1707,10 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="7"/>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="J39" s="5"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1612,9 +1723,10 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="7"/>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="J40" s="5"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1627,9 +1739,10 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="J41" s="5"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1642,9 +1755,10 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="7"/>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="J42" s="5"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1657,9 +1771,10 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="7"/>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="J43" s="5"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1672,9 +1787,10 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="7"/>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="J44" s="5"/>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1687,9 +1803,10 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="7"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="J45" s="5"/>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1702,9 +1819,10 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="J46" s="5"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1717,9 +1835,10 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="7"/>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="J47" s="5"/>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1732,9 +1851,10 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="7"/>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="J48" s="5"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1747,9 +1867,10 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="7"/>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="J49" s="5"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1762,9 +1883,10 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="7"/>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="J50" s="5"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1777,9 +1899,10 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="7"/>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="J51" s="5"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1792,9 +1915,10 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="7"/>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="J52" s="5"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1807,9 +1931,10 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="7"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="J53" s="5"/>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1822,9 +1947,10 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="7"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="J54" s="5"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1837,9 +1963,10 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="7"/>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="J55" s="5"/>
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1852,9 +1979,10 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="7"/>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="J56" s="5"/>
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1867,9 +1995,10 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="7"/>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="J57" s="5"/>
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1882,9 +2011,10 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="7"/>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="J58" s="5"/>
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1897,9 +2027,10 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="7"/>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="J59" s="5"/>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1912,9 +2043,10 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="7"/>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="J60" s="5"/>
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1927,9 +2059,10 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="7"/>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="J61" s="5"/>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1942,9 +2075,10 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="7"/>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="J62" s="5"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1957,9 +2091,10 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
-      <c r="J63" s="7"/>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="J63" s="5"/>
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1972,9 +2107,10 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="7"/>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="J64" s="5"/>
+      <c r="K64" s="7"/>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -1987,9 +2123,10 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="7"/>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="J65" s="5"/>
+      <c r="K65" s="7"/>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2002,9 +2139,10 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="7"/>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="J66" s="5"/>
+      <c r="K66" s="7"/>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2017,9 +2155,10 @@
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="7"/>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="J67" s="5"/>
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2032,9 +2171,10 @@
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="7"/>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="J68" s="5"/>
+      <c r="K68" s="7"/>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2047,9 +2187,10 @@
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
-      <c r="J69" s="7"/>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="J69" s="5"/>
+      <c r="K69" s="7"/>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2062,9 +2203,10 @@
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
-      <c r="J70" s="7"/>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="J70" s="5"/>
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <f t="shared" ref="A71:A104" si="1">ROW()-4</f>
         <v>67</v>
@@ -2077,9 +2219,10 @@
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
-      <c r="J71" s="7"/>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="J71" s="5"/>
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -2092,9 +2235,10 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
-      <c r="J72" s="7"/>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="J72" s="5"/>
+      <c r="K72" s="7"/>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -2107,9 +2251,10 @@
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
-      <c r="J73" s="7"/>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="J73" s="5"/>
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -2122,9 +2267,10 @@
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
-      <c r="J74" s="7"/>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="J74" s="5"/>
+      <c r="K74" s="7"/>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -2137,9 +2283,10 @@
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="7"/>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="J75" s="5"/>
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -2152,9 +2299,10 @@
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
-      <c r="J76" s="7"/>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="J76" s="5"/>
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -2167,9 +2315,10 @@
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
-      <c r="J77" s="7"/>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="J77" s="5"/>
+      <c r="K77" s="7"/>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -2182,9 +2331,10 @@
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
-      <c r="J78" s="7"/>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="J78" s="5"/>
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="4">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -2197,9 +2347,10 @@
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
-      <c r="J79" s="7"/>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="J79" s="5"/>
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -2212,9 +2363,10 @@
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
-      <c r="J80" s="7"/>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="J80" s="5"/>
+      <c r="K80" s="7"/>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="4">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -2227,9 +2379,10 @@
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
-      <c r="J81" s="7"/>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="J81" s="5"/>
+      <c r="K81" s="7"/>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="4">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -2242,9 +2395,10 @@
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
-      <c r="J82" s="7"/>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="J82" s="5"/>
+      <c r="K82" s="7"/>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="4">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -2257,9 +2411,10 @@
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
-      <c r="J83" s="7"/>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="J83" s="5"/>
+      <c r="K83" s="7"/>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="4">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -2272,9 +2427,10 @@
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
-      <c r="J84" s="7"/>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="J84" s="5"/>
+      <c r="K84" s="7"/>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="4">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -2287,9 +2443,10 @@
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
-      <c r="J85" s="7"/>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="J85" s="5"/>
+      <c r="K85" s="7"/>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="4">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -2302,9 +2459,10 @@
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
-      <c r="J86" s="7"/>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="J86" s="5"/>
+      <c r="K86" s="7"/>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="4">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -2317,9 +2475,10 @@
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
-      <c r="J87" s="7"/>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="J87" s="5"/>
+      <c r="K87" s="7"/>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="4">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -2332,9 +2491,10 @@
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
-      <c r="J88" s="7"/>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="J88" s="5"/>
+      <c r="K88" s="7"/>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="4">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -2347,9 +2507,10 @@
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
-      <c r="J89" s="7"/>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="J89" s="5"/>
+      <c r="K89" s="7"/>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="4">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -2362,9 +2523,10 @@
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
-      <c r="J90" s="7"/>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="J90" s="5"/>
+      <c r="K90" s="7"/>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="4">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -2377,9 +2539,10 @@
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
-      <c r="J91" s="7"/>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="J91" s="5"/>
+      <c r="K91" s="7"/>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="4">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -2392,9 +2555,10 @@
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
-      <c r="J92" s="7"/>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="J92" s="5"/>
+      <c r="K92" s="7"/>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="4">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -2407,9 +2571,10 @@
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
-      <c r="J93" s="7"/>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="J93" s="5"/>
+      <c r="K93" s="7"/>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="4">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -2422,9 +2587,10 @@
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
-      <c r="J94" s="7"/>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="J94" s="5"/>
+      <c r="K94" s="7"/>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="4">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -2437,9 +2603,10 @@
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
-      <c r="J95" s="7"/>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="J95" s="5"/>
+      <c r="K95" s="7"/>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="4">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -2452,9 +2619,10 @@
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
-      <c r="J96" s="7"/>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="J96" s="5"/>
+      <c r="K96" s="7"/>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="4">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -2467,9 +2635,10 @@
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
-      <c r="J97" s="7"/>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="J97" s="5"/>
+      <c r="K97" s="7"/>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="4">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -2482,9 +2651,10 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
-      <c r="J98" s="7"/>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="J98" s="5"/>
+      <c r="K98" s="7"/>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="4">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -2497,9 +2667,10 @@
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
-      <c r="J99" s="7"/>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="J99" s="5"/>
+      <c r="K99" s="7"/>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="4">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -2512,9 +2683,10 @@
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
-      <c r="J100" s="7"/>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="J100" s="5"/>
+      <c r="K100" s="7"/>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="4">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -2527,9 +2699,10 @@
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
-      <c r="J101" s="7"/>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="J101" s="5"/>
+      <c r="K101" s="7"/>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="4">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -2542,9 +2715,10 @@
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
-      <c r="J102" s="7"/>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="J102" s="5"/>
+      <c r="K102" s="7"/>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="4">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -2557,9 +2731,10 @@
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
-      <c r="J103" s="7"/>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="J103" s="5"/>
+      <c r="K103" s="7"/>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -2572,7 +2747,8 @@
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
-      <c r="J104" s="7"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2584,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0251EFA2-F071-424F-9191-E7B3DB25F7DC}">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B53"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2598,29 +2774,29 @@
     <col min="4" max="4" width="53.875" style="10" customWidth="1"/>
     <col min="5" max="5" width="53.625" style="10" customWidth="1"/>
     <col min="6" max="8" width="12.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="44.5" style="2" customWidth="1"/>
+    <col min="9" max="10" width="11.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1"/>
       <c r="B1" s="15"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" s="15"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="15"/>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="22.5">
+    <row r="4" spans="1:11" s="13" customFormat="1" ht="22.5">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
@@ -2651,144 +2827,187 @@
       <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="36.75">
+      <c r="K4" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="36.75">
       <c r="A5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="H5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="55.5">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="55.5">
       <c r="A6" s="4">
         <f t="shared" ref="A6:A70" si="0">ROW()-4</f>
         <v>2</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <f>ROW()-4</f>
         <v>3</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="36.75">
+      <c r="I7" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="36.75">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" ht="55.5">
+      <c r="I8" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="55.5">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" ht="36.75">
+      <c r="I9" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="36.75">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2801,9 +3020,10 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" s="5"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2816,9 +3036,10 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="5"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -2830,9 +3051,10 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13" s="5"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2845,9 +3067,10 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="5"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2860,9 +3083,10 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15" s="5"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2875,9 +3099,10 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16" s="5"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2890,9 +3115,10 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="J17" s="5"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2905,9 +3131,10 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="J18" s="5"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2920,9 +3147,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="J19" s="5"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2935,9 +3163,10 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="J20" s="5"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2950,9 +3179,10 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="J21" s="5"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2965,9 +3195,10 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="J22" s="5"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2980,9 +3211,10 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="J23" s="5"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2995,9 +3227,10 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="J24" s="5"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3010,9 +3243,10 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="J25" s="5"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3025,9 +3259,10 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="J26" s="5"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3040,9 +3275,10 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="J27" s="5"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3055,9 +3291,10 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="J28" s="5"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3070,9 +3307,10 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="J29" s="5"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3085,9 +3323,10 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="J30" s="5"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3100,9 +3339,10 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="J31" s="5"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3115,9 +3355,10 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="J32" s="5"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3130,9 +3371,10 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="J33" s="5"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3145,9 +3387,10 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="J34" s="5"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3160,9 +3403,10 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="J35" s="5"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3175,9 +3419,10 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="J36" s="5"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3190,9 +3435,10 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="7"/>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="J37" s="5"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3205,9 +3451,10 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="7"/>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="J38" s="5"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3220,9 +3467,10 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="7"/>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="J39" s="5"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3235,9 +3483,10 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="7"/>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="J40" s="5"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3250,9 +3499,10 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="J41" s="5"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3265,9 +3515,10 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="7"/>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="J42" s="5"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3280,9 +3531,10 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="7"/>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="J43" s="5"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3295,9 +3547,10 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="7"/>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="J44" s="5"/>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3310,9 +3563,10 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="7"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="J45" s="5"/>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3325,9 +3579,10 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="J46" s="5"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3340,9 +3595,10 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="7"/>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="J47" s="5"/>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3355,9 +3611,10 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="7"/>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="J48" s="5"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3370,9 +3627,10 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="7"/>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="J49" s="5"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3385,9 +3643,10 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="7"/>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="J50" s="5"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3400,9 +3659,10 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="7"/>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="J51" s="5"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3415,9 +3675,10 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="7"/>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="J52" s="5"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3430,9 +3691,10 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="7"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="J53" s="5"/>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3445,9 +3707,10 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="7"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="J54" s="5"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3460,9 +3723,10 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="7"/>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="J55" s="5"/>
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3475,9 +3739,10 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="7"/>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="J56" s="5"/>
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3490,9 +3755,10 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="7"/>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="J57" s="5"/>
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3505,9 +3771,10 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="7"/>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="J58" s="5"/>
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3520,9 +3787,10 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="7"/>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="J59" s="5"/>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3535,9 +3803,10 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="7"/>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="J60" s="5"/>
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3550,9 +3819,10 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="7"/>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="J61" s="5"/>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3565,9 +3835,10 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="7"/>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="J62" s="5"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3580,9 +3851,10 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
-      <c r="J63" s="7"/>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="J63" s="5"/>
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3595,9 +3867,10 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="7"/>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="J64" s="5"/>
+      <c r="K64" s="7"/>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3610,9 +3883,10 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="7"/>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="J65" s="5"/>
+      <c r="K65" s="7"/>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3625,9 +3899,10 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="7"/>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="J66" s="5"/>
+      <c r="K66" s="7"/>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3640,9 +3915,10 @@
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="7"/>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="J67" s="5"/>
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3655,9 +3931,10 @@
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="7"/>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="J68" s="5"/>
+      <c r="K68" s="7"/>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3670,9 +3947,10 @@
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
-      <c r="J69" s="7"/>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="J69" s="5"/>
+      <c r="K69" s="7"/>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3685,9 +3963,10 @@
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
-      <c r="J70" s="7"/>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="J70" s="5"/>
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <f t="shared" ref="A71:A104" si="1">ROW()-4</f>
         <v>67</v>
@@ -3700,9 +3979,10 @@
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
-      <c r="J71" s="7"/>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="J71" s="5"/>
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3715,9 +3995,10 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
-      <c r="J72" s="7"/>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="J72" s="5"/>
+      <c r="K72" s="7"/>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3730,9 +4011,10 @@
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
-      <c r="J73" s="7"/>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="J73" s="5"/>
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3745,9 +4027,10 @@
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
-      <c r="J74" s="7"/>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="J74" s="5"/>
+      <c r="K74" s="7"/>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3760,9 +4043,10 @@
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="7"/>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="J75" s="5"/>
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3775,9 +4059,10 @@
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
-      <c r="J76" s="7"/>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="J76" s="5"/>
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3790,9 +4075,10 @@
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
-      <c r="J77" s="7"/>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="J77" s="5"/>
+      <c r="K77" s="7"/>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3805,9 +4091,10 @@
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
-      <c r="J78" s="7"/>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="J78" s="5"/>
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="4">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3820,9 +4107,10 @@
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
-      <c r="J79" s="7"/>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="J79" s="5"/>
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3835,9 +4123,10 @@
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
-      <c r="J80" s="7"/>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="J80" s="5"/>
+      <c r="K80" s="7"/>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="4">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3850,9 +4139,10 @@
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
-      <c r="J81" s="7"/>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="J81" s="5"/>
+      <c r="K81" s="7"/>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="4">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3865,9 +4155,10 @@
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
-      <c r="J82" s="7"/>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="J82" s="5"/>
+      <c r="K82" s="7"/>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="4">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3880,9 +4171,10 @@
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
-      <c r="J83" s="7"/>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="J83" s="5"/>
+      <c r="K83" s="7"/>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="4">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -3895,9 +4187,10 @@
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
-      <c r="J84" s="7"/>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="J84" s="5"/>
+      <c r="K84" s="7"/>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="4">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -3910,9 +4203,10 @@
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
-      <c r="J85" s="7"/>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="J85" s="5"/>
+      <c r="K85" s="7"/>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="4">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -3925,9 +4219,10 @@
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
-      <c r="J86" s="7"/>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="J86" s="5"/>
+      <c r="K86" s="7"/>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="4">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -3940,9 +4235,10 @@
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
-      <c r="J87" s="7"/>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="J87" s="5"/>
+      <c r="K87" s="7"/>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="4">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -3955,9 +4251,10 @@
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
-      <c r="J88" s="7"/>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="J88" s="5"/>
+      <c r="K88" s="7"/>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="4">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -3970,9 +4267,10 @@
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
-      <c r="J89" s="7"/>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="J89" s="5"/>
+      <c r="K89" s="7"/>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="4">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -3985,9 +4283,10 @@
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
-      <c r="J90" s="7"/>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="J90" s="5"/>
+      <c r="K90" s="7"/>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="4">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4000,9 +4299,10 @@
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
-      <c r="J91" s="7"/>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="J91" s="5"/>
+      <c r="K91" s="7"/>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="4">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4015,9 +4315,10 @@
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
-      <c r="J92" s="7"/>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="J92" s="5"/>
+      <c r="K92" s="7"/>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="4">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4030,9 +4331,10 @@
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
-      <c r="J93" s="7"/>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="J93" s="5"/>
+      <c r="K93" s="7"/>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="4">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4045,9 +4347,10 @@
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
-      <c r="J94" s="7"/>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="J94" s="5"/>
+      <c r="K94" s="7"/>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="4">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4060,9 +4363,10 @@
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
-      <c r="J95" s="7"/>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="J95" s="5"/>
+      <c r="K95" s="7"/>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="4">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4075,9 +4379,10 @@
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
-      <c r="J96" s="7"/>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="J96" s="5"/>
+      <c r="K96" s="7"/>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="4">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4090,9 +4395,10 @@
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
-      <c r="J97" s="7"/>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="J97" s="5"/>
+      <c r="K97" s="7"/>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="4">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4105,9 +4411,10 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
-      <c r="J98" s="7"/>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="J98" s="5"/>
+      <c r="K98" s="7"/>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="4">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4120,9 +4427,10 @@
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
-      <c r="J99" s="7"/>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="J99" s="5"/>
+      <c r="K99" s="7"/>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="4">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4135,9 +4443,10 @@
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
-      <c r="J100" s="7"/>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="J100" s="5"/>
+      <c r="K100" s="7"/>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="4">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4150,9 +4459,10 @@
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
-      <c r="J101" s="7"/>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="J101" s="5"/>
+      <c r="K101" s="7"/>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="4">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4165,9 +4475,10 @@
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
-      <c r="J102" s="7"/>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="J102" s="5"/>
+      <c r="K102" s="7"/>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="4">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4180,9 +4491,10 @@
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
-      <c r="J103" s="7"/>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="J103" s="5"/>
+      <c r="K103" s="7"/>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4195,7 +4507,8 @@
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
-      <c r="J104" s="7"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4207,10 +4520,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA9AF38-7352-4E06-B242-52066A65ADD8}">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="D51" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4221,29 +4534,29 @@
     <col min="4" max="4" width="53.875" style="10" customWidth="1"/>
     <col min="5" max="5" width="53.625" style="10" customWidth="1"/>
     <col min="6" max="8" width="12.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="44.5" style="2" customWidth="1"/>
+    <col min="9" max="10" width="11.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1"/>
       <c r="B1" s="15"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" s="15"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="15"/>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="22.5">
+    <row r="4" spans="1:11" s="13" customFormat="1" ht="22.5">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
@@ -4274,1071 +4587,1445 @@
       <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="36.75">
+      <c r="K4" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="36.75">
       <c r="A5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="55.5">
+        <v>23</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="55.5">
       <c r="A6" s="4">
         <f t="shared" ref="A6:A70" si="0">ROW()-4</f>
         <v>2</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="36.75">
+      <c r="I6" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <f>ROW()-4</f>
         <v>3</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="55.5">
+      <c r="I7" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="55.5">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" ht="36.75">
+      <c r="I8" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="36.75">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" ht="55.5">
+      <c r="I9" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="55.5">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" ht="36.75">
+      <c r="I10" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" ht="55.5">
+      <c r="I11" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="55.5">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" ht="36.75">
+      <c r="I12" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="36.75">
       <c r="A13" s="4">
         <v>9</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" ht="55.5">
+      <c r="I13" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="55.5">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" ht="36.75">
+      <c r="I14" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" ht="55.5">
+      <c r="I15" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" ht="55.5">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" ht="36.75">
+      <c r="I16" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="36.75">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" ht="55.5">
+      <c r="I17" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="55.5">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" ht="36.75">
+      <c r="I18" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" ht="55.5">
+      <c r="I19" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" ht="55.5">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" ht="36.75">
+      <c r="I20" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="36.75">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" ht="55.5">
+      <c r="I21" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" ht="55.5">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" ht="36.75">
+      <c r="I22" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" ht="36.75">
+      <c r="I23" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" ht="36.75">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" ht="55.5">
+      <c r="I24" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" ht="55.5">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" ht="55.5">
+      <c r="I25" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" ht="36.75">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" ht="73.5">
+      <c r="I26" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" ht="55.5">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" ht="36.75">
+      <c r="I27" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:10" ht="73.5">
+      <c r="I28" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" ht="73.5">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:10" ht="36.75">
+      <c r="I29" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" ht="36.75">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:10" ht="55.5">
+      <c r="I30" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" ht="36.75">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" ht="36.75">
+      <c r="I31" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" ht="36.75">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" ht="55.5">
+      <c r="I32" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" ht="36.75">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" ht="36.75">
+      <c r="I33" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" ht="55.5">
-      <c r="A35" s="4">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
+      <c r="I34" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" ht="55.5">
+      <c r="A35" s="4"/>
       <c r="B35" s="16"/>
       <c r="C35" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" ht="36.75">
+      <c r="I35" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="36.75">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F36" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="1:10" ht="36.75">
+      <c r="I36" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" ht="36.75">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="5"/>
+        <v>113</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="7"/>
-    </row>
-    <row r="38" spans="1:10" ht="55.5">
+      <c r="I37" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:11" ht="36.75">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="7"/>
-    </row>
-    <row r="39" spans="1:10" ht="55.5">
+      <c r="I38" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:11" ht="36.75">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="7"/>
-    </row>
-    <row r="40" spans="1:10" ht="73.5">
+      <c r="I39" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:11" ht="73.5">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="5"/>
+        <v>119</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="7"/>
-    </row>
-    <row r="41" spans="1:10" ht="36.75">
+      <c r="I40" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="1:10" ht="73.5">
+      <c r="I41" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:11" ht="73.5">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="7"/>
-    </row>
-    <row r="43" spans="1:10" ht="55.5">
+      <c r="I42" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" ht="36.75">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="5"/>
+        <v>125</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="7"/>
-    </row>
-    <row r="44" spans="1:10" ht="73.5">
+      <c r="I43" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:11" ht="55.5">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="5"/>
+        <v>127</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="7"/>
-    </row>
-    <row r="45" spans="1:10" ht="36.75">
+      <c r="I44" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F45" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="7"/>
-    </row>
-    <row r="46" spans="1:10" ht="73.5">
+      <c r="I45" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="1:11" ht="73.5">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F46" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="1:10" ht="36.75">
+      <c r="I46" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:11" ht="36.75">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F47" s="5"/>
+        <v>133</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="7"/>
-    </row>
-    <row r="48" spans="1:10" ht="55.5">
+      <c r="I47" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="1:11" ht="55.5">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="7"/>
-    </row>
-    <row r="49" spans="1:10" ht="36.75">
+      <c r="I48" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="1:11" ht="36.75">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" s="5"/>
+        <v>138</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="7"/>
-    </row>
-    <row r="50" spans="1:10" ht="55.5">
+      <c r="I49" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="1:11" ht="36.75">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="17" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F50" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="7"/>
-    </row>
-    <row r="51" spans="1:10" ht="275.25">
+      <c r="I50" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="1:11" ht="275.25">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="7"/>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="I51" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="1:11" ht="36.75">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B52" s="16"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="5"/>
+      <c r="C52" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="7"/>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="I52" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="1:11" ht="55.5">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B53" s="16"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="5"/>
+      <c r="C53" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="7"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="I53" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B54" s="16"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="5"/>
+      <c r="C54" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="7"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="I54" s="8">
+        <v>45021</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -5351,9 +6038,10 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="7"/>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="J55" s="5"/>
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -5366,9 +6054,10 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="7"/>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="J56" s="5"/>
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -5381,9 +6070,10 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="7"/>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="J57" s="5"/>
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5396,9 +6086,10 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="7"/>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="J58" s="5"/>
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -5411,9 +6102,10 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="7"/>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="J59" s="5"/>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -5426,9 +6118,10 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="7"/>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="J60" s="5"/>
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -5441,9 +6134,10 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="7"/>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="J61" s="5"/>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -5456,9 +6150,10 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="7"/>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="J62" s="5"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -5471,9 +6166,10 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
-      <c r="J63" s="7"/>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="J63" s="5"/>
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -5486,9 +6182,10 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="7"/>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="J64" s="5"/>
+      <c r="K64" s="7"/>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -5501,9 +6198,10 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="7"/>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="J65" s="5"/>
+      <c r="K65" s="7"/>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -5516,9 +6214,10 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="7"/>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="J66" s="5"/>
+      <c r="K66" s="7"/>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -5531,9 +6230,10 @@
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="7"/>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="J67" s="5"/>
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -5546,9 +6246,10 @@
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="7"/>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="J68" s="5"/>
+      <c r="K68" s="7"/>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -5561,9 +6262,10 @@
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
-      <c r="J69" s="7"/>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="J69" s="5"/>
+      <c r="K69" s="7"/>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -5576,9 +6278,10 @@
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
-      <c r="J70" s="7"/>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="J70" s="5"/>
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <f t="shared" ref="A71:A104" si="1">ROW()-4</f>
         <v>67</v>
@@ -5591,9 +6294,10 @@
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
-      <c r="J71" s="7"/>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="J71" s="5"/>
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -5606,9 +6310,10 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
-      <c r="J72" s="7"/>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="J72" s="5"/>
+      <c r="K72" s="7"/>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -5621,9 +6326,10 @@
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
-      <c r="J73" s="7"/>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="J73" s="5"/>
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -5636,9 +6342,10 @@
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
-      <c r="J74" s="7"/>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="J74" s="5"/>
+      <c r="K74" s="7"/>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -5651,9 +6358,10 @@
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="7"/>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="J75" s="5"/>
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -5666,9 +6374,10 @@
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
-      <c r="J76" s="7"/>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="J76" s="5"/>
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -5681,9 +6390,10 @@
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
-      <c r="J77" s="7"/>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="J77" s="5"/>
+      <c r="K77" s="7"/>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -5696,9 +6406,10 @@
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
-      <c r="J78" s="7"/>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="J78" s="5"/>
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="4">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -5711,9 +6422,10 @@
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
-      <c r="J79" s="7"/>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="J79" s="5"/>
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -5726,9 +6438,10 @@
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
-      <c r="J80" s="7"/>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="J80" s="5"/>
+      <c r="K80" s="7"/>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="4">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -5741,9 +6454,10 @@
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
-      <c r="J81" s="7"/>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="J81" s="5"/>
+      <c r="K81" s="7"/>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="4">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -5756,9 +6470,10 @@
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
-      <c r="J82" s="7"/>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="J82" s="5"/>
+      <c r="K82" s="7"/>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="4">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -5771,9 +6486,10 @@
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
-      <c r="J83" s="7"/>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="J83" s="5"/>
+      <c r="K83" s="7"/>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="4">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -5786,9 +6502,10 @@
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
-      <c r="J84" s="7"/>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="J84" s="5"/>
+      <c r="K84" s="7"/>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="4">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -5801,9 +6518,10 @@
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
-      <c r="J85" s="7"/>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="J85" s="5"/>
+      <c r="K85" s="7"/>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="4">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -5816,9 +6534,10 @@
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
-      <c r="J86" s="7"/>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="J86" s="5"/>
+      <c r="K86" s="7"/>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="4">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -5831,9 +6550,10 @@
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
-      <c r="J87" s="7"/>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="J87" s="5"/>
+      <c r="K87" s="7"/>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="4">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -5846,9 +6566,10 @@
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
-      <c r="J88" s="7"/>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="J88" s="5"/>
+      <c r="K88" s="7"/>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="4">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -5861,9 +6582,10 @@
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
-      <c r="J89" s="7"/>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="J89" s="5"/>
+      <c r="K89" s="7"/>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="4">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -5876,9 +6598,10 @@
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
-      <c r="J90" s="7"/>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="J90" s="5"/>
+      <c r="K90" s="7"/>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="4">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -5891,9 +6614,10 @@
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
-      <c r="J91" s="7"/>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="J91" s="5"/>
+      <c r="K91" s="7"/>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="4">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -5906,9 +6630,10 @@
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
-      <c r="J92" s="7"/>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="J92" s="5"/>
+      <c r="K92" s="7"/>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="4">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -5921,9 +6646,10 @@
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
-      <c r="J93" s="7"/>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="J93" s="5"/>
+      <c r="K93" s="7"/>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="4">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -5936,9 +6662,10 @@
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
-      <c r="J94" s="7"/>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="J94" s="5"/>
+      <c r="K94" s="7"/>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="4">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -5951,9 +6678,10 @@
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
-      <c r="J95" s="7"/>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="J95" s="5"/>
+      <c r="K95" s="7"/>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="4">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -5966,9 +6694,10 @@
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
-      <c r="J96" s="7"/>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="J96" s="5"/>
+      <c r="K96" s="7"/>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="4">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -5981,9 +6710,10 @@
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
-      <c r="J97" s="7"/>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="J97" s="5"/>
+      <c r="K97" s="7"/>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="4">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -5996,9 +6726,10 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
-      <c r="J98" s="7"/>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="J98" s="5"/>
+      <c r="K98" s="7"/>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="4">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -6011,9 +6742,10 @@
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
-      <c r="J99" s="7"/>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="J99" s="5"/>
+      <c r="K99" s="7"/>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="4">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -6026,9 +6758,10 @@
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
-      <c r="J100" s="7"/>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="J100" s="5"/>
+      <c r="K100" s="7"/>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="4">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -6041,9 +6774,10 @@
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
-      <c r="J101" s="7"/>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="J101" s="5"/>
+      <c r="K101" s="7"/>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="4">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -6056,9 +6790,10 @@
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
-      <c r="J102" s="7"/>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="J102" s="5"/>
+      <c r="K102" s="7"/>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="4">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -6071,9 +6806,10 @@
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
-      <c r="J103" s="7"/>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="J103" s="5"/>
+      <c r="K103" s="7"/>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -6086,7 +6822,8 @@
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
-      <c r="J104" s="7"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/test_case/unit-test-case.xlsx
+++ b/test_case/unit-test-case.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-unit-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B1D0FD9-02E5-44E2-8FDD-AFDAD37EB789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37DB5835-76BD-442C-8F8C-72D049FE92B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="完了画面" sheetId="6" r:id="rId1"/>
-    <sheet name="確認画面" sheetId="5" r:id="rId2"/>
-    <sheet name="登録画面" sheetId="4" r:id="rId3"/>
+    <sheet name="DB登録エラー画面" sheetId="7" r:id="rId1"/>
+    <sheet name="完了画面" sheetId="6" r:id="rId2"/>
+    <sheet name="確認画面" sheetId="5" r:id="rId3"/>
+    <sheet name="登録画面" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="152">
   <si>
     <t>テストID</t>
   </si>
@@ -74,6 +75,56 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>【前に戻る】ボタン</t>
+  </si>
+  <si>
+    <t>カーソルホバー時、ボタンの視覚的変化があるか</t>
+  </si>
+  <si>
+    <t>1.【戻る】ボタンへカーソルを合わせる</t>
+  </si>
+  <si>
+    <t>カーソルを合わせている間、【前に戻る】ボタンが下がる</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>河本</t>
+  </si>
+  <si>
+    <t>クリック時、ボタンの視覚的変化があるか</t>
+  </si>
+  <si>
+    <t>1.【戻る】ボタンにカーソルを合わせ、左クリックを押し続ける
+2.【戻る】ボタンからカーソルを外し、左クリックを離す</t>
+  </si>
+  <si>
+    <t>左クリックを押し続けている間、【前に戻る】ボタンが、カーソルを合わせた時よりも下がり、
+カーソルを外して、左クリックを離すと、元に戻る</t>
+  </si>
+  <si>
+    <t>画面遷移できるか</t>
+  </si>
+  <si>
+    <t>1.【戻る】ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>アカウント登録画面「index.php」へ遷移する。</t>
+  </si>
+  <si>
+    <t>テキスト</t>
+  </si>
+  <si>
+    <t>DB登録エラー時のテキストが表示されるか</t>
+  </si>
+  <si>
+    <t>1．画面を目視する</t>
+  </si>
+  <si>
+    <t>「エラーが発生したため、アカウント登録できません。」と赤字で表示されている</t>
+  </si>
+  <si>
     <t>「登録完了しました」</t>
   </si>
   <si>
@@ -89,31 +140,16 @@
     <t>NG</t>
   </si>
   <si>
-    <t>OKorNG</t>
-  </si>
-  <si>
-    <t>河本</t>
-  </si>
-  <si>
     <t>中央ではない</t>
   </si>
   <si>
     <t>【TOPへ戻る】ボタン</t>
   </si>
   <si>
-    <t>カーソルホバー時、ボタンの視覚的変化があるか</t>
-  </si>
-  <si>
     <t>1.【TOPへ戻る】ボタンへカーソルを合わせる</t>
   </si>
   <si>
     <t>カーソルを合わせている間、【TOPへ戻る】ボタンが下がる</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>クリック時、ボタンの視覚的変化があるか</t>
   </si>
   <si>
     <t>1.【TOPへ戻る】ボタンにカーソルを合わせ、左クリックを押し続ける
@@ -124,33 +160,10 @@
 カーソルを外して、左クリックを離すと、元に戻る</t>
   </si>
   <si>
-    <t>画面遷移できるか</t>
-  </si>
-  <si>
     <t>1.【TOPへ戻る】ボタンをクリックする</t>
   </si>
   <si>
     <t>ブログトップ画面「index.php」へ遷移する。</t>
-  </si>
-  <si>
-    <t>【前に戻る】ボタン</t>
-  </si>
-  <si>
-    <t>1.【戻る】ボタンへカーソルを合わせる</t>
-  </si>
-  <si>
-    <t>カーソルを合わせている間、【前に戻る】ボタンが下がる</t>
-  </si>
-  <si>
-    <t>1.【戻る】ボタンにカーソルを合わせ、左クリックを押し続ける
-2.【戻る】ボタンからカーソルを外し、左クリックを離す</t>
-  </si>
-  <si>
-    <t>左クリックを押し続けている間、【前に戻る】ボタンが、カーソルを合わせた時よりも下がり、
-カーソルを外して、左クリックを離すと、元に戻る</t>
-  </si>
-  <si>
-    <t>1.【戻る】ボタンをクリックする</t>
   </si>
   <si>
     <t>アカウント登録画面「regist.php」へ遷移する。</t>
@@ -195,6 +208,9 @@
     <t>入力欄の下に「ひらがなと漢字で入力してください」とエラーメッセージが表示される</t>
   </si>
   <si>
+    <t>「ー」長音ではエラーが表示されない</t>
+  </si>
+  <si>
     <t>入力文字数の制限ができているか</t>
   </si>
   <si>
@@ -333,7 +349,8 @@
     <t>入力欄の下に「メールアドレスは英数字と一部の記号のみ使用可能です」とエラーメッセージが表示される</t>
   </si>
   <si>
-    <t>「a=@a」など@を挟んで、メールアドレスとして使用できる形式で入力しないと、判定されない</t>
+    <t>Ff,chrome:半角英数字、かつ、「a@a」など@を挟んで、メールアドレスとして使用できる形式で入力しないと、エラー判定が実行されない
+edge:「a@あ」では、エラー表示にならない、メール形式で入力するようブラウザのデフォルトのメッセージが表示される</t>
   </si>
   <si>
     <t>1.「メールアドレス」の入力フォームへ「101文字」入力する</t>
@@ -422,7 +439,7 @@
 2.確認ボタンをクリックする</t>
   </si>
   <si>
-    <t>入力欄の下に「住所（市区町村）が未選択です」とエラーメッセージが表示される</t>
+    <t>入力欄の下に「住所（市区町村）が未入力です」とエラーメッセージが表示される</t>
   </si>
   <si>
     <t>1.「住所（市区町村）」の入力フォームへひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）「以外」で入力する
@@ -432,7 +449,7 @@
     <t>入力欄の下に「住所（市区町村）は、ひらがな、漢字、数字、カタカナと一部の記号が使用可能です」とエラーメッセージが表示される</t>
   </si>
   <si>
-    <t>全角記号がスルーされる</t>
+    <t>「＾」「＝」などの全角記号ではエラーとならない</t>
   </si>
   <si>
     <t>1.「住所（市区町村）」の入力フォームへ「11文字」入力する</t>
@@ -634,7 +651,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,6 +707,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1021,11 +1041,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890A58AD-036D-485B-A457-79A622266E3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F3368F-FEDE-419F-8F89-AA2E8DA09032}">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1114,104 +1134,114 @@
         <v>15</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="36.75">
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="55.5">
       <c r="A6" s="4">
         <f t="shared" ref="A6:A70" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I6" s="8">
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="73.5">
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <f>ROW()-4</f>
         <v>3</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="36.75">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I8" s="8">
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7"/>
     </row>
@@ -2752,18 +2782,18 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:C4" xr:uid="{98F0D596-6A6A-4296-9969-6DFE7B0BA08C}"/>
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:C4" xr:uid="{CD06C6FE-402F-428C-8CF8-14395AEB221B}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0251EFA2-F071-424F-9191-E7B3DB25F7DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890A58AD-036D-485B-A457-79A622266E3B}">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2837,98 +2867,108 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="G5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="55.5">
+    </row>
+    <row r="6" spans="1:11" ht="36.75">
       <c r="A6" s="4">
         <f t="shared" ref="A6:A70" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="C6" s="18" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I6" s="8">
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="73.5">
       <c r="A7" s="4">
         <f>ROW()-4</f>
         <v>3</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="18" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I7" s="8">
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="36.75">
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>37</v>
-      </c>
+      <c r="B8" s="16"/>
       <c r="C8" s="18" t="s">
         <v>20</v>
       </c>
@@ -2936,75 +2976,55 @@
         <v>38</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I8" s="8">
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" ht="55.5">
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="16"/>
-      <c r="C9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="36.75">
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11">
@@ -4512,18 +4532,18 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:C4" xr:uid="{EF5EB558-996A-41D0-BB70-0D5BA1222529}"/>
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:C4" xr:uid="{98F0D596-6A6A-4296-9969-6DFE7B0BA08C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA9AF38-7352-4E06-B242-52066A65ADD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0251EFA2-F071-424F-9191-E7B3DB25F7DC}">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView topLeftCell="D51" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J54"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4597,27 +4617,31 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I5" s="8">
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="6"/>
     </row>
@@ -4627,25 +4651,29 @@
         <v>2</v>
       </c>
       <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
-        <v>46</v>
+      <c r="C6" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I6" s="8">
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7"/>
     </row>
@@ -4655,111 +4683,127 @@
         <v>3</v>
       </c>
       <c r="B7" s="16"/>
-      <c r="C7" s="9" t="s">
-        <v>49</v>
+      <c r="C7" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I7" s="8">
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="36.75">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="55.5">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="55.5">
-      <c r="A8" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="36.75">
-      <c r="A9" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="E9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I9" s="8">
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="55.5">
+    <row r="10" spans="1:11" ht="36.75">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="17" t="s">
-        <v>46</v>
+      <c r="C10" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I10" s="8">
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7"/>
     </row>
@@ -4769,111 +4813,61 @@
         <v>7</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="C11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="55.5">
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="36.75">
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="55.5">
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11">
@@ -4882,114 +4876,62 @@
         <v>11</v>
       </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" ht="55.5">
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B16" s="16"/>
-      <c r="C16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="36.75">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="55.5">
+    <row r="18" spans="1:11">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B18" s="16"/>
-      <c r="C18" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11">
@@ -4998,114 +4940,62 @@
         <v>15</v>
       </c>
       <c r="B19" s="16"/>
-      <c r="C19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" ht="55.5">
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B20" s="16"/>
-      <c r="C20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J20" s="5" t="s">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="36.75">
-      <c r="A21" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" ht="55.5">
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B22" s="16"/>
-      <c r="C22" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11">
@@ -5114,143 +5004,79 @@
         <v>19</v>
       </c>
       <c r="B23" s="16"/>
-      <c r="C23" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" ht="36.75">
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B24" s="16"/>
-      <c r="C24" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" ht="55.5">
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B25" s="16"/>
-      <c r="C25" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" ht="36.75">
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" ht="55.5">
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B27" s="16"/>
-      <c r="C27" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="4">
@@ -5258,170 +5084,94 @@
         <v>24</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" ht="73.5">
+    <row r="29" spans="1:11">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B29" s="16"/>
-      <c r="C29" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" ht="36.75">
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" ht="36.75">
+    <row r="31" spans="1:11">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B31" s="16"/>
-      <c r="C31" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" ht="36.75">
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" ht="36.75">
+    <row r="33" spans="1:11">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B33" s="16"/>
-      <c r="C33" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:11">
@@ -5430,200 +5180,111 @@
         <v>30</v>
       </c>
       <c r="B34" s="16"/>
-      <c r="C34" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11" ht="55.5">
-      <c r="A35" s="4"/>
+    <row r="35" spans="1:11">
+      <c r="A35" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="B35" s="16"/>
-      <c r="C35" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="36.75">
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="1:11" ht="36.75">
+    <row r="37" spans="1:11">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B37" s="16"/>
-      <c r="C37" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="1:11" ht="36.75">
+    <row r="38" spans="1:11">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B38" s="16"/>
-      <c r="C38" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="1:11" ht="36.75">
+    <row r="39" spans="1:11">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="1:11" ht="73.5">
+    <row r="40" spans="1:11">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B40" s="16"/>
-      <c r="C40" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>120</v>
-      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="4">
@@ -5631,115 +5292,63 @@
         <v>37</v>
       </c>
       <c r="B41" s="16"/>
-      <c r="C41" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
       <c r="K41" s="7"/>
     </row>
-    <row r="42" spans="1:11" ht="73.5">
+    <row r="42" spans="1:11">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B42" s="16"/>
-      <c r="C42" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="1:11" ht="36.75">
+    <row r="43" spans="1:11">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:11" ht="55.5">
+    <row r="44" spans="1:11">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B44" s="16"/>
-      <c r="C44" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>120</v>
-      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="7"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="4">
@@ -5747,254 +5356,142 @@
         <v>41</v>
       </c>
       <c r="B45" s="16"/>
-      <c r="C45" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="1:11" ht="73.5">
+    <row r="46" spans="1:11">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B46" s="16"/>
-      <c r="C46" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="1:11" ht="36.75">
+    <row r="47" spans="1:11">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="1:11" ht="55.5">
+    <row r="48" spans="1:11">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B48" s="16"/>
-      <c r="C48" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="1:11" ht="36.75">
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="1:11" ht="36.75">
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B50" s="16"/>
-      <c r="C50" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C50" s="17"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="1:11" ht="275.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B51" s="16"/>
-      <c r="C51" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
       <c r="K51" s="7"/>
     </row>
-    <row r="52" spans="1:11" ht="36.75">
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B52" s="16"/>
-      <c r="C52" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
       <c r="K52" s="7"/>
     </row>
-    <row r="53" spans="1:11" ht="55.5">
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B53" s="16"/>
-      <c r="C53" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
       <c r="K53" s="7"/>
     </row>
     <row r="54" spans="1:11">
@@ -6003,26 +5500,14 @@
         <v>50</v>
       </c>
       <c r="B54" s="16"/>
-      <c r="C54" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="8">
-        <v>45021</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
       <c r="K54" s="7"/>
     </row>
     <row r="55" spans="1:11">
@@ -6827,6 +6312,2527 @@
     </row>
   </sheetData>
   <dataValidations count="1">
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:C4" xr:uid="{EF5EB558-996A-41D0-BB70-0D5BA1222529}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA9AF38-7352-4E06-B242-52066A65ADD8}">
+  <dimension ref="A1:K104"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="53.875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="53.625" style="10" customWidth="1"/>
+    <col min="6" max="8" width="12.75" style="3" customWidth="1"/>
+    <col min="9" max="10" width="11.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1"/>
+      <c r="B1" s="15"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="15"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1"/>
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" s="13" customFormat="1" ht="22.5">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="36.75">
+      <c r="A5" s="4">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="55.5">
+      <c r="A6" s="4">
+        <f t="shared" ref="A6:A70" si="0">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4">
+        <f>ROW()-4</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="55.5">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="36.75">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="55.5">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="55.5">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="36.75">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="55.5">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" ht="55.5">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="36.75">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="55.5">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" ht="55.5">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="36.75">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" ht="55.5">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" ht="36.75">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" ht="55.5">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" ht="36.75">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" ht="110.25">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" ht="110.25">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="36.75">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" ht="36.75">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" ht="36.75">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" ht="36.75">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" ht="55.5">
+      <c r="A35" s="4"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="36.75">
+      <c r="A36" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" ht="36.75">
+      <c r="A37" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:11" ht="36.75">
+      <c r="A38" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:11" ht="36.75">
+      <c r="A39" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:11" ht="73.5">
+      <c r="A40" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:11" ht="73.5">
+      <c r="A42" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" ht="36.75">
+      <c r="A43" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:11" ht="55.5">
+      <c r="A44" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="1:11" ht="73.5">
+      <c r="A46" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:11" ht="36.75">
+      <c r="A47" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="1:11" ht="55.5">
+      <c r="A48" s="4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="1:11" ht="36.75">
+      <c r="A49" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="1:11" ht="36.75">
+      <c r="A50" s="4">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="1:11" ht="275.25">
+      <c r="A51" s="4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B51" s="16"/>
+      <c r="C51" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="1:11" ht="36.75">
+      <c r="A52" s="4">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="1:11" ht="55.5">
+      <c r="A53" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B55" s="16"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B57" s="16"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B59" s="16"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B60" s="16"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="4">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="4">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B62" s="16"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="4">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B63" s="16"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="7"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="4">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B65" s="16"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="7"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="4">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B66" s="16"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="7"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="4">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B67" s="16"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="4">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B68" s="16"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="7"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="4">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B69" s="16"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="7"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="4">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B70" s="16"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="4">
+        <f t="shared" ref="A71:A104" si="1">ROW()-4</f>
+        <v>67</v>
+      </c>
+      <c r="B71" s="16"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="4">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B72" s="16"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="7"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="4">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B73" s="16"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="4">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B74" s="16"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="7"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="4">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B75" s="16"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="4">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B76" s="16"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="4">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B77" s="16"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="7"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="4">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B78" s="16"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="4">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B79" s="16"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="4">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B80" s="16"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="7"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="4">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B81" s="16"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="7"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="4">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B82" s="16"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="7"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="4">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B83" s="16"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="7"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B84" s="16"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="7"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="4">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B85" s="16"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="7"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="4">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B86" s="16"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="7"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="4">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B87" s="16"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="7"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="4">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B88" s="16"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="7"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="4">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B89" s="16"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="7"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="4">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B90" s="16"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="7"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="4">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B91" s="16"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="7"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="4">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B92" s="16"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="7"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="4">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B93" s="16"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="7"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="4">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B94" s="16"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="7"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="4">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B95" s="16"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="7"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="4">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B96" s="16"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="7"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="4">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B97" s="16"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="7"/>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="4">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B98" s="16"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="7"/>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="4">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B99" s="16"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="7"/>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="4">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B100" s="16"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="7"/>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="4">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B101" s="16"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="7"/>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="4">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B102" s="16"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="7"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="4">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B103" s="16"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="7"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B104" s="16"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="7"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
     <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:C4" xr:uid="{5002EB6D-83DE-495A-8897-1E0B91A38271}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_case/unit-test-case.xlsx
+++ b/test_case/unit-test-case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-unit-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37DB5835-76BD-442C-8F8C-72D049FE92B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EF941B9-808F-41FB-BF15-F7059566D929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB登録エラー画面" sheetId="7" r:id="rId1"/>
@@ -299,6 +299,37 @@
 2.確認ボタンをクリックする</t>
   </si>
   <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>1.「メールアドレス」の入力フォームには入力しない
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「メールアドレスが未入力です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.「メールアドレス」の入力フォームへ半角英数字、半角記号（ハイフンとアットマーク）「以外」で入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>入力欄の下に「メールアドレスは英数字と一部の記号のみ使用可能です」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>Ff,chrome:半角英数字、かつ、「a@a」など@を挟んで、メールアドレスとして使用できる形式で入力しないと、エラー判定が実行されない
+edge:「a@あ」では、エラー表示にならない、メール形式で入力するようブラウザのデフォルトのメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.「メールアドレス」の入力フォームへ「101文字」入力する</t>
+  </si>
+  <si>
+    <t>入力欄に100文字目まで表示される</t>
+  </si>
+  <si>
+    <t>1.「メールアドレス」の入力フォームへ「半角英数字、半角記号（ハイフンとアットマーク）」、「101文字以内」で入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
     <t>パスワード</t>
   </si>
   <si>
@@ -329,37 +360,6 @@
   </si>
   <si>
     <t>1.「パスワード」の入力フォームへ「半角英数字」、「10文字以内」で入力する
-2.確認ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-  </si>
-  <si>
-    <t>1.「メールアドレス」の入力フォームには入力しない
-2.確認ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>入力欄の下に「メールアドレスが未入力です」とエラーメッセージが表示される</t>
-  </si>
-  <si>
-    <t>1.「メールアドレス」の入力フォームへ半角英数字、半角記号（ハイフンとアットマーク）「以外」で入力する
-2.確認ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>入力欄の下に「メールアドレスは英数字と一部の記号のみ使用可能です」とエラーメッセージが表示される</t>
-  </si>
-  <si>
-    <t>Ff,chrome:半角英数字、かつ、「a@a」など@を挟んで、メールアドレスとして使用できる形式で入力しないと、エラー判定が実行されない
-edge:「a@あ」では、エラー表示にならない、メール形式で入力するようブラウザのデフォルトのメッセージが表示される</t>
-  </si>
-  <si>
-    <t>1.「メールアドレス」の入力フォームへ「101文字」入力する</t>
-  </si>
-  <si>
-    <t>入力欄に100文字目まで表示される</t>
-  </si>
-  <si>
-    <t>1.「メールアドレス」の入力フォームへ「半角英数字、半角記号（ハイフンとアットマーク）」、「101文字以内」で入力する
 2.確認ボタンをクリックする</t>
   </si>
   <si>
@@ -526,8 +526,8 @@
 2.「名前（名）」の入力フォームへ「太郎」を入力する
 3.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
 4.「カナ（名）」の入力フォームへ「タロウ」を入力する
-5.「パスワード」の入力フォームへ「abc123」を入力する
-6.「メールアドレス」の入力フォームへ「test@mail.com」を入力する
+5.「メールアドレス」の入力フォームへ「test@mail.com」を入力する
+6.「パスワード」の入力フォームへ「abc123」を入力する
 7.「性別」のリストから「男性」を選択する
 8.「郵便番号」の入力フォームへ「1234567」を入力する
 9.「住所（都道府県）」のリストから「東京都」を選択する
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F3368F-FEDE-419F-8F89-AA2E8DA09032}">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4542,7 +4542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0251EFA2-F071-424F-9191-E7B3DB25F7DC}">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5:I10"/>
     </sheetView>
   </sheetViews>
@@ -6322,8 +6322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA9AF38-7352-4E06-B242-52066A65ADD8}">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6952,7 +6952,7 @@
       </c>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" ht="55.5">
+    <row r="22" spans="1:11" ht="110.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6968,13 +6968,13 @@
         <v>84</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I22" s="8">
         <v>45028</v>
@@ -6982,7 +6982,9 @@
       <c r="J22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="7"/>
+      <c r="K22" s="19" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="4">
@@ -6994,10 +6996,10 @@
         <v>54</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>15</v>
@@ -7016,29 +7018,29 @@
       </c>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" ht="36.75">
+    <row r="24" spans="1:11" ht="110.25">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="9" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I24" s="8">
         <v>45028</v>
@@ -7046,22 +7048,26 @@
       <c r="J24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" ht="55.5">
+      <c r="K24" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="36.75">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="9" t="s">
-        <v>57</v>
+      <c r="B25" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>15</v>
@@ -7080,22 +7086,20 @@
       </c>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" ht="36.75">
+    <row r="26" spans="1:11" ht="55.5">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>90</v>
-      </c>
+      <c r="B26" s="16"/>
       <c r="C26" s="17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>15</v>
@@ -7114,29 +7118,29 @@
       </c>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" ht="110.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B27" s="16"/>
-      <c r="C27" s="17" t="s">
-        <v>50</v>
+      <c r="C27" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="I27" s="8">
         <v>45028</v>
@@ -7144,18 +7148,16 @@
       <c r="J27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" ht="36.75">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="9" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>96</v>
@@ -7180,7 +7182,7 @@
       </c>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" ht="110.25">
+    <row r="29" spans="1:11" ht="55.5">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7196,13 +7198,13 @@
         <v>59</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="I29" s="8">
         <v>45028</v>
@@ -7210,9 +7212,7 @@
       <c r="J29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="19" t="s">
-        <v>95</v>
-      </c>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:11" ht="36.75">
       <c r="A30" s="4">
@@ -7720,7 +7720,7 @@
         <v>133</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>15</v>

--- a/test_case/unit-test-case.xlsx
+++ b/test_case/unit-test-case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-unit-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EF941B9-808F-41FB-BF15-F7059566D929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96727C22-9E48-4280-B1E3-99007984E2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="153">
   <si>
     <t>テストID</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>DB登録処理にエラーがなければ、アカウント登録完了画面「regist_complete.php」へ遷移する。</t>
+  </si>
+  <si>
+    <t>改善案</t>
   </si>
   <si>
     <t>名前（姓）</t>
@@ -618,7 +621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -641,6 +644,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -651,7 +669,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,6 +729,15 @@
     </xf>
     <xf numFmtId="56" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6320,10 +6347,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA9AF38-7352-4E06-B242-52066A65ADD8}">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6336,27 +6363,28 @@
     <col min="6" max="8" width="12.75" style="3" customWidth="1"/>
     <col min="9" max="10" width="11.75" style="2" customWidth="1"/>
     <col min="11" max="11" width="44.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="15"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1"/>
       <c r="B2" s="15"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1"/>
       <c r="B3" s="15"/>
     </row>
-    <row r="4" spans="1:11" s="13" customFormat="1" ht="22.5">
+    <row r="4" spans="1:12" s="13" customFormat="1" ht="22.5">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
@@ -6390,23 +6418,26 @@
       <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="36.75">
+      <c r="L4" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="36.75">
       <c r="A5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>15</v>
@@ -6424,21 +6455,22 @@
         <v>16</v>
       </c>
       <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="55.5">
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" spans="1:12" ht="55.5">
       <c r="A6" s="4">
         <f t="shared" ref="A6:A70" si="0">ROW()-4</f>
         <v>2</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>31</v>
@@ -6456,23 +6488,24 @@
         <v>16</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>54</v>
+      </c>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <f>ROW()-4</f>
         <v>3</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>15</v>
@@ -6490,21 +6523,22 @@
         <v>16</v>
       </c>
       <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="55.5">
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" ht="55.5">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>15</v>
@@ -6522,23 +6556,24 @@
         <v>16</v>
       </c>
       <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="36.75">
+      <c r="L8" s="21"/>
+    </row>
+    <row r="9" spans="1:12" ht="36.75">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>15</v>
@@ -6556,21 +6591,22 @@
         <v>16</v>
       </c>
       <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="55.5">
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="1:12" ht="55.5">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>31</v>
@@ -6588,23 +6624,24 @@
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>54</v>
+      </c>
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>15</v>
@@ -6622,21 +6659,22 @@
         <v>16</v>
       </c>
       <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="55.5">
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="1:12" ht="55.5">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>15</v>
@@ -6654,22 +6692,23 @@
         <v>16</v>
       </c>
       <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="36.75">
+      <c r="L12" s="21"/>
+    </row>
+    <row r="13" spans="1:12" ht="36.75">
       <c r="A13" s="4">
         <v>9</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>15</v>
@@ -6687,21 +6726,22 @@
         <v>16</v>
       </c>
       <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" ht="55.5">
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" ht="55.5">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>15</v>
@@ -6719,21 +6759,22 @@
         <v>16</v>
       </c>
       <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>15</v>
@@ -6751,21 +6792,22 @@
         <v>16</v>
       </c>
       <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" ht="55.5">
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" ht="55.5">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>31</v>
@@ -6783,25 +6825,26 @@
         <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="36.75">
+        <v>74</v>
+      </c>
+      <c r="L16" s="21"/>
+    </row>
+    <row r="17" spans="1:12" ht="36.75">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>15</v>
@@ -6819,21 +6862,22 @@
         <v>16</v>
       </c>
       <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" ht="55.5">
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="1:12" ht="55.5">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>15</v>
@@ -6851,21 +6895,22 @@
         <v>16</v>
       </c>
       <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>15</v>
@@ -6883,21 +6928,22 @@
         <v>16</v>
       </c>
       <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" ht="55.5">
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="1:12" ht="55.5">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>31</v>
@@ -6915,25 +6961,26 @@
         <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="36.75">
+        <v>74</v>
+      </c>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" ht="36.75">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>15</v>
@@ -6951,21 +6998,22 @@
         <v>16</v>
       </c>
       <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" ht="110.25">
+      <c r="L21" s="21"/>
+    </row>
+    <row r="22" spans="1:12" ht="110.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>31</v>
@@ -6983,23 +7031,24 @@
         <v>16</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>86</v>
+      </c>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>15</v>
@@ -7017,21 +7066,22 @@
         <v>16</v>
       </c>
       <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" ht="110.25">
+      <c r="L23" s="21"/>
+    </row>
+    <row r="24" spans="1:12" ht="110.25">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>31</v>
@@ -7049,25 +7099,26 @@
         <v>16</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="36.75">
+        <v>86</v>
+      </c>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" ht="36.75">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>15</v>
@@ -7085,21 +7136,22 @@
         <v>16</v>
       </c>
       <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" ht="55.5">
+      <c r="L25" s="21"/>
+    </row>
+    <row r="26" spans="1:12" ht="55.5">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>15</v>
@@ -7117,21 +7169,22 @@
         <v>16</v>
       </c>
       <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>15</v>
@@ -7149,21 +7202,22 @@
         <v>16</v>
       </c>
       <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" ht="36.75">
+      <c r="L27" s="21"/>
+    </row>
+    <row r="28" spans="1:12" ht="36.75">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>15</v>
@@ -7181,21 +7235,22 @@
         <v>16</v>
       </c>
       <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:11" ht="55.5">
+      <c r="L28" s="21"/>
+    </row>
+    <row r="29" spans="1:12" ht="55.5">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>15</v>
@@ -7213,23 +7268,24 @@
         <v>16</v>
       </c>
       <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" ht="36.75">
+      <c r="L29" s="21"/>
+    </row>
+    <row r="30" spans="1:12" ht="36.75">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>15</v>
@@ -7247,21 +7303,22 @@
         <v>16</v>
       </c>
       <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:11" ht="36.75">
+      <c r="L30" s="21"/>
+    </row>
+    <row r="31" spans="1:12" ht="36.75">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>15</v>
@@ -7279,23 +7336,24 @@
         <v>16</v>
       </c>
       <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="1:11" ht="36.75">
+      <c r="L31" s="21"/>
+    </row>
+    <row r="32" spans="1:12" ht="36.75">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>15</v>
@@ -7313,21 +7371,22 @@
         <v>16</v>
       </c>
       <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:11" ht="36.75">
+      <c r="L32" s="21"/>
+    </row>
+    <row r="33" spans="1:12" ht="36.75">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>15</v>
@@ -7345,21 +7404,22 @@
         <v>16</v>
       </c>
       <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="21"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>15</v>
@@ -7377,18 +7437,19 @@
         <v>16</v>
       </c>
       <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="1:11" ht="55.5">
+      <c r="L34" s="21"/>
+    </row>
+    <row r="35" spans="1:12" ht="55.5">
       <c r="A35" s="4"/>
       <c r="B35" s="16"/>
       <c r="C35" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>31</v>
@@ -7406,25 +7467,26 @@
         <v>16</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="36.75">
+        <v>113</v>
+      </c>
+      <c r="L35" s="21"/>
+    </row>
+    <row r="36" spans="1:12" ht="36.75">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>15</v>
@@ -7442,21 +7504,22 @@
         <v>16</v>
       </c>
       <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="1:11" ht="36.75">
+      <c r="L36" s="21"/>
+    </row>
+    <row r="37" spans="1:12" ht="36.75">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>15</v>
@@ -7474,21 +7537,22 @@
         <v>16</v>
       </c>
       <c r="K37" s="7"/>
-    </row>
-    <row r="38" spans="1:11" ht="36.75">
+      <c r="L37" s="21"/>
+    </row>
+    <row r="38" spans="1:12" ht="36.75">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>15</v>
@@ -7506,23 +7570,24 @@
         <v>16</v>
       </c>
       <c r="K38" s="7"/>
-    </row>
-    <row r="39" spans="1:11" ht="36.75">
+      <c r="L38" s="21"/>
+    </row>
+    <row r="39" spans="1:12" ht="36.75">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>15</v>
@@ -7540,21 +7605,22 @@
         <v>16</v>
       </c>
       <c r="K39" s="7"/>
-    </row>
-    <row r="40" spans="1:11" ht="73.5">
+      <c r="L39" s="21"/>
+    </row>
+    <row r="40" spans="1:12" ht="73.5">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>31</v>
@@ -7572,23 +7638,24 @@
         <v>16</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>126</v>
+      </c>
+      <c r="L40" s="21"/>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>15</v>
@@ -7606,21 +7673,22 @@
         <v>16</v>
       </c>
       <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="1:11" ht="73.5">
+      <c r="L41" s="21"/>
+    </row>
+    <row r="42" spans="1:12" ht="73.5">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>15</v>
@@ -7638,23 +7706,24 @@
         <v>16</v>
       </c>
       <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="1:11" ht="36.75">
+      <c r="L42" s="21"/>
+    </row>
+    <row r="43" spans="1:12" ht="36.75">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>15</v>
@@ -7672,21 +7741,22 @@
         <v>16</v>
       </c>
       <c r="K43" s="7"/>
-    </row>
-    <row r="44" spans="1:11" ht="55.5">
+      <c r="L43" s="21"/>
+    </row>
+    <row r="44" spans="1:12" ht="55.5">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>31</v>
@@ -7704,23 +7774,24 @@
         <v>16</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>126</v>
+      </c>
+      <c r="L44" s="21"/>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>15</v>
@@ -7738,21 +7809,22 @@
         <v>16</v>
       </c>
       <c r="K45" s="7"/>
-    </row>
-    <row r="46" spans="1:11" ht="73.5">
+      <c r="L45" s="21"/>
+    </row>
+    <row r="46" spans="1:12" ht="73.5">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>15</v>
@@ -7770,23 +7842,24 @@
         <v>16</v>
       </c>
       <c r="K46" s="7"/>
-    </row>
-    <row r="47" spans="1:11" ht="36.75">
+      <c r="L46" s="21"/>
+    </row>
+    <row r="47" spans="1:12" ht="36.75">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>15</v>
@@ -7804,21 +7877,22 @@
         <v>16</v>
       </c>
       <c r="K47" s="7"/>
-    </row>
-    <row r="48" spans="1:11" ht="55.5">
+      <c r="L47" s="21"/>
+    </row>
+    <row r="48" spans="1:12" ht="55.5">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>15</v>
@@ -7836,23 +7910,24 @@
         <v>16</v>
       </c>
       <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="1:11" ht="36.75">
+      <c r="L48" s="21"/>
+    </row>
+    <row r="49" spans="1:12" ht="36.75">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>15</v>
@@ -7870,21 +7945,22 @@
         <v>16</v>
       </c>
       <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="1:11" ht="36.75">
+      <c r="L49" s="21"/>
+    </row>
+    <row r="50" spans="1:12" ht="36.75">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>15</v>
@@ -7902,8 +7978,9 @@
         <v>16</v>
       </c>
       <c r="K50" s="7"/>
-    </row>
-    <row r="51" spans="1:11" ht="275.25">
+      <c r="L50" s="21"/>
+    </row>
+    <row r="51" spans="1:12" ht="275.25">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -7913,10 +7990,10 @@
         <v>20</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>15</v>
@@ -7934,8 +8011,9 @@
         <v>16</v>
       </c>
       <c r="K51" s="7"/>
-    </row>
-    <row r="52" spans="1:11" ht="36.75">
+      <c r="L51" s="21"/>
+    </row>
+    <row r="52" spans="1:12" ht="36.75">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -7945,7 +8023,7 @@
         <v>12</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>14</v>
@@ -7966,8 +8044,9 @@
         <v>16</v>
       </c>
       <c r="K52" s="7"/>
-    </row>
-    <row r="53" spans="1:11" ht="55.5">
+      <c r="L52" s="21"/>
+    </row>
+    <row r="53" spans="1:12" ht="55.5">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -7977,7 +8056,7 @@
         <v>17</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>19</v>
@@ -7998,8 +8077,9 @@
         <v>16</v>
       </c>
       <c r="K53" s="7"/>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53" s="21"/>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -8009,7 +8089,7 @@
         <v>20</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>40</v>
@@ -8030,8 +8110,9 @@
         <v>16</v>
       </c>
       <c r="K54" s="7"/>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54" s="21"/>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -8046,8 +8127,9 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="7"/>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55" s="21"/>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -8062,8 +8144,9 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="7"/>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56" s="21"/>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -8078,8 +8161,9 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="7"/>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57" s="21"/>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -8094,8 +8178,9 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="7"/>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58" s="21"/>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -8110,8 +8195,9 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="7"/>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59" s="21"/>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -8126,8 +8212,9 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="7"/>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60" s="21"/>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -8142,8 +8229,9 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="7"/>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61" s="21"/>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -8158,8 +8246,9 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="7"/>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62" s="21"/>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -8174,8 +8263,9 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="7"/>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63" s="21"/>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -8190,8 +8280,9 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="7"/>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64" s="21"/>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -8206,8 +8297,9 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="7"/>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65" s="21"/>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -8222,8 +8314,9 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="7"/>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66" s="21"/>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -8238,8 +8331,9 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="7"/>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67" s="21"/>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -8254,8 +8348,9 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="7"/>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68" s="21"/>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -8270,8 +8365,9 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="7"/>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69" s="21"/>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -8286,8 +8382,9 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="7"/>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70" s="21"/>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="4">
         <f t="shared" ref="A71:A104" si="1">ROW()-4</f>
         <v>67</v>
@@ -8302,8 +8399,9 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="7"/>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71" s="21"/>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="4">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -8318,8 +8416,9 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="7"/>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72" s="21"/>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="4">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -8334,8 +8433,9 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="7"/>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73" s="21"/>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="4">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -8350,8 +8450,9 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="7"/>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74" s="21"/>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="4">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -8366,8 +8467,9 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="7"/>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75" s="21"/>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="4">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -8382,8 +8484,9 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="7"/>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76" s="21"/>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="4">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -8398,8 +8501,9 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="7"/>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77" s="21"/>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="4">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -8414,8 +8518,9 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="7"/>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78" s="21"/>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="4">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -8430,8 +8535,9 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="7"/>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79" s="21"/>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -8446,8 +8552,9 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="7"/>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80" s="21"/>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="4">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -8462,8 +8569,9 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="7"/>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81" s="21"/>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="4">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -8478,8 +8586,9 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="7"/>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="L82" s="21"/>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="4">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -8494,8 +8603,9 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="7"/>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83" s="21"/>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="4">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -8510,8 +8620,9 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="7"/>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84" s="21"/>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="4">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -8526,8 +8637,9 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="7"/>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85" s="21"/>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="4">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -8542,8 +8654,9 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="7"/>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86" s="21"/>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="4">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -8558,8 +8671,9 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="7"/>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87" s="21"/>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="4">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -8574,8 +8688,9 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="7"/>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L88" s="21"/>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="4">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -8590,8 +8705,9 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="7"/>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89" s="21"/>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="4">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -8606,8 +8722,9 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="7"/>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="L90" s="21"/>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="4">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -8622,8 +8739,9 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="7"/>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="L91" s="21"/>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="4">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -8638,8 +8756,9 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="7"/>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92" s="21"/>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="4">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -8654,8 +8773,9 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="7"/>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93" s="21"/>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="4">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -8670,8 +8790,9 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="7"/>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="L94" s="21"/>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="4">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -8686,8 +8807,9 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="7"/>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95" s="21"/>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="4">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -8702,8 +8824,9 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="7"/>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="L96" s="21"/>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="4">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -8718,8 +8841,9 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="7"/>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97" s="21"/>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="4">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -8734,8 +8858,9 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="7"/>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98" s="21"/>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="4">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -8750,8 +8875,9 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="7"/>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99" s="21"/>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="4">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -8766,8 +8892,9 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="7"/>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100" s="21"/>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="4">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -8782,8 +8909,9 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="7"/>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101" s="21"/>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="4">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -8798,8 +8926,9 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="7"/>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="L102" s="21"/>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="4">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -8814,8 +8943,9 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="7"/>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="L103" s="21"/>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -8830,6 +8960,7 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="7"/>
+      <c r="L104" s="21"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/test_case/unit-test-case.xlsx
+++ b/test_case/unit-test-case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-unit-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55ECB4A0-7261-4E3C-8F07-3FC6AE2FB497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C45C124-1BE1-4722-BC20-A7F4795ED9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB登録エラー画面" sheetId="7" r:id="rId1"/>
@@ -1086,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F3368F-FEDE-419F-8F89-AA2E8DA09032}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6678,7 +6678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA9AF38-7352-4E06-B242-52066A65ADD8}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+    <sheetView topLeftCell="F19" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>

--- a/test_case/unit-test-case.xlsx
+++ b/test_case/unit-test-case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-unit-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C45C124-1BE1-4722-BC20-A7F4795ED9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0171DAE-B7B8-4421-950B-38ACD39527F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB登録エラー画面" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="172">
   <si>
     <t>テストID</t>
   </si>
@@ -84,92 +84,111 @@
     <t>カーソルホバー時、ボタンの視覚的変化があるか</t>
   </si>
   <si>
+    <t>1.【前に戻る】ボタンへカーソルを合わせる</t>
+  </si>
+  <si>
+    <t>カーソルを合わせている間、【前に戻る】ボタンが下がる</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>河本</t>
+  </si>
+  <si>
+    <t>クリック時、ボタンの視覚的変化があるか</t>
+  </si>
+  <si>
+    <t>1.【前に戻る】ボタンにカーソルを合わせ、左クリックを押し続ける
+2.【前に戻る】ボタンからカーソルを外し、左クリックを離す</t>
+  </si>
+  <si>
+    <t>左クリックを押し続けている間、【前に戻る】ボタンが、カーソルを合わせた時よりも下がり、
+カーソルを外して、左クリックを離すと、元に戻る</t>
+  </si>
+  <si>
+    <t>画面遷移できるか</t>
+  </si>
+  <si>
+    <t>1.【前に戻る】ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>アカウント登録画面「index.php」へ遷移する。</t>
+  </si>
+  <si>
+    <t>テストID4へ変更</t>
+  </si>
+  <si>
+    <t>登録画面へ戻るようにする</t>
+  </si>
+  <si>
+    <t>アカウント登録画面「regist_confirm.php」へ遷移する。</t>
+  </si>
+  <si>
+    <t>テキスト</t>
+  </si>
+  <si>
+    <t>DB登録エラー時のテキストが表示されるか</t>
+  </si>
+  <si>
+    <t>1．画面を目視する</t>
+  </si>
+  <si>
+    <t>「エラーが発生したため、アカウント登録できません。」と赤字で表示されている</t>
+  </si>
+  <si>
+    <t>「登録完了しました」</t>
+  </si>
+  <si>
+    <t>中央に大きくテキストが表示されているか</t>
+  </si>
+  <si>
+    <t>1.画面を目視する</t>
+  </si>
+  <si>
+    <t>画面中央に大きく「登録完了しました」のテキストが表示されている</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>中央ではない</t>
+  </si>
+  <si>
+    <t>cssで表示を中央にする</t>
+  </si>
+  <si>
+    <t>【TOPへ戻る】ボタン</t>
+  </si>
+  <si>
+    <t>1.【TOPへ戻る】ボタンへカーソルを合わせる</t>
+  </si>
+  <si>
+    <t>カーソルを合わせている間、【TOPへ戻る】ボタンが下がる</t>
+  </si>
+  <si>
+    <t>1.【TOPへ戻る】ボタンにカーソルを合わせ、左クリックを押し続ける
+2.【TOPへ戻る】ボタンからカーソルを外し、左クリックを離す</t>
+  </si>
+  <si>
+    <t>左クリックを押し続けている間、【TOPへ戻る】ボタンが、カーソルを合わせた時よりも下がり、
+カーソルを外して、左クリックを離すと、元に戻る</t>
+  </si>
+  <si>
+    <t>1.【TOPへ戻る】ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>ブログトップ画面「index.php」へ遷移する。</t>
+  </si>
+  <si>
     <t>1.【戻る】ボタンへカーソルを合わせる</t>
-  </si>
-  <si>
-    <t>カーソルを合わせている間、【前に戻る】ボタンが下がる</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>河本</t>
-  </si>
-  <si>
-    <t>クリック時、ボタンの視覚的変化があるか</t>
   </si>
   <si>
     <t>1.【戻る】ボタンにカーソルを合わせ、左クリックを押し続ける
 2.【戻る】ボタンからカーソルを外し、左クリックを離す</t>
   </si>
   <si>
-    <t>左クリックを押し続けている間、【前に戻る】ボタンが、カーソルを合わせた時よりも下がり、
-カーソルを外して、左クリックを離すと、元に戻る</t>
-  </si>
-  <si>
-    <t>画面遷移できるか</t>
-  </si>
-  <si>
     <t>1.【戻る】ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>アカウント登録画面「index.php」へ遷移する。</t>
-  </si>
-  <si>
-    <t>テキスト</t>
-  </si>
-  <si>
-    <t>DB登録エラー時のテキストが表示されるか</t>
-  </si>
-  <si>
-    <t>1．画面を目視する</t>
-  </si>
-  <si>
-    <t>「エラーが発生したため、アカウント登録できません。」と赤字で表示されている</t>
-  </si>
-  <si>
-    <t>「登録完了しました」</t>
-  </si>
-  <si>
-    <t>中央に大きくテキストが表示されているか</t>
-  </si>
-  <si>
-    <t>1.画面を目視する</t>
-  </si>
-  <si>
-    <t>画面中央に大きく「登録完了しました」のテキストが表示されている</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>中央ではない</t>
-  </si>
-  <si>
-    <t>cssで表示を中央にする</t>
-  </si>
-  <si>
-    <t>【TOPへ戻る】ボタン</t>
-  </si>
-  <si>
-    <t>1.【TOPへ戻る】ボタンへカーソルを合わせる</t>
-  </si>
-  <si>
-    <t>カーソルを合わせている間、【TOPへ戻る】ボタンが下がる</t>
-  </si>
-  <si>
-    <t>1.【TOPへ戻る】ボタンにカーソルを合わせ、左クリックを押し続ける
-2.【TOPへ戻る】ボタンからカーソルを外し、左クリックを離す</t>
-  </si>
-  <si>
-    <t>左クリックを押し続けている間、【TOPへ戻る】ボタンが、カーソルを合わせた時よりも下がり、
-カーソルを外して、左クリックを離すと、元に戻る</t>
-  </si>
-  <si>
-    <t>1.【TOPへ戻る】ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>ブログトップ画面「index.php」へ遷移する。</t>
   </si>
   <si>
     <t>アカウント登録画面「regist.php」へ遷移する。</t>
@@ -214,6 +233,19 @@
     <t>入力欄の下に「ひらがなと漢字で入力してください」とエラーメッセージが表示される</t>
   </si>
   <si>
+    <t>「0」でも許容外文字種エラーが表示されるか</t>
+  </si>
+  <si>
+    <t>1.「名前（姓）」の入力フォームには「0」を入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>空欄と同じ扱いとなる</t>
+  </si>
+  <si>
+    <t>empty()でチェックではなく、isset()でチェック</t>
+  </si>
+  <si>
     <t>入力文字数の制限ができているか</t>
   </si>
   <si>
@@ -247,6 +279,10 @@
 2.確認ボタンをクリックする</t>
   </si>
   <si>
+    <t>1.「名前（名）」の入力フォームには「0」を入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
     <t>1.「名前（名）」の入力フォームへ「11文字」入力する</t>
   </si>
   <si>
@@ -329,7 +365,8 @@
 edge:「a@あ」では、エラー表示にならない、メール形式で入力するようブラウザのデフォルトのメッセージが表示される</t>
   </si>
   <si>
-    <t>input type=mailではなく、textを使って、php側で制御する</t>
+    <t>input type=mailではなく、textを使って、php側で制御する
+mailとして指定しておき、補助的に使う</t>
   </si>
   <si>
     <t>1.「メールアドレス」の入力フォームへ「101文字」入力する</t>
@@ -342,6 +379,9 @@
 2.確認ボタンをクリックする</t>
   </si>
   <si>
+    <t>input type=mailではなく、textを使って、php側で制御する</t>
+  </si>
+  <si>
     <t>パスワード</t>
   </si>
   <si>
@@ -441,6 +481,13 @@
   </si>
   <si>
     <t>初期値として「空欄」が選択されている</t>
+  </si>
+  <si>
+    <t>0でも登録できるか</t>
+  </si>
+  <si>
+    <t>1.「住所（都道府県）」は「北海道」を選択する
+2.確認ボタンをクリックする</t>
   </si>
   <si>
     <t>1.「住所（都道府県）」のリストから空欄「以外」を選択する
@@ -1084,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F3368F-FEDE-419F-8F89-AA2E8DA09032}">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1196,7 +1243,7 @@
     </row>
     <row r="6" spans="1:12" ht="55.5">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A70" si="0">ROW()-4</f>
+        <f t="shared" ref="A6:A71" si="0">ROW()-4</f>
         <v>2</v>
       </c>
       <c r="B6" s="16"/>
@@ -1227,7 +1274,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="20"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" ht="27">
       <c r="A7" s="4">
         <f>ROW()-4</f>
         <v>3</v>
@@ -1257,26 +1304,28 @@
       <c r="J7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="20"/>
-    </row>
-    <row r="8" spans="1:12" ht="36.75">
+      <c r="K7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="B8" s="16"/>
       <c r="C8" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
@@ -1287,7 +1336,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="8">
-        <v>45028</v>
+        <v>45037</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>17</v>
@@ -1295,20 +1344,38 @@
       <c r="K8" s="7"/>
       <c r="L8" s="20"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="36.75">
       <c r="A9" s="4">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>5</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="B9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="20"/>
     </row>
@@ -1335,7 +1402,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="C11" s="9"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="5"/>
@@ -1365,10 +1432,11 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="5"/>
@@ -1381,8 +1449,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
@@ -1402,7 +1469,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="5"/>
@@ -1436,7 +1503,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="5"/>
@@ -1470,7 +1537,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="16"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="5"/>
@@ -1504,7 +1571,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="5"/>
@@ -1538,7 +1605,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="16"/>
-      <c r="C23" s="9"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="5"/>
@@ -1589,7 +1656,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="5"/>
@@ -1623,7 +1690,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="9"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="5"/>
@@ -1657,7 +1724,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="18"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="5"/>
@@ -1674,7 +1741,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="16"/>
-      <c r="C31" s="9"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="5"/>
@@ -1691,7 +1758,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="5"/>
@@ -1725,7 +1792,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="16"/>
-      <c r="C34" s="9"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="5"/>
@@ -1759,7 +1826,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="5"/>
@@ -1776,7 +1843,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="16"/>
-      <c r="C37" s="9"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="5"/>
@@ -1810,7 +1877,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="5"/>
@@ -1844,7 +1911,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="16"/>
-      <c r="C41" s="9"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="5"/>
@@ -1878,7 +1945,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="5"/>
@@ -1912,7 +1979,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="16"/>
-      <c r="C45" s="9"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="5"/>
@@ -1980,7 +2047,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="5"/>
@@ -2014,7 +2081,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="16"/>
-      <c r="C51" s="9"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="5"/>
@@ -2350,7 +2417,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="4">
-        <f t="shared" ref="A71:A104" si="1">ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="B71" s="16"/>
@@ -2367,7 +2434,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A72:A105" si="1">ROW()-4</f>
         <v>68</v>
       </c>
       <c r="B72" s="16"/>
@@ -2925,6 +2992,23 @@
       <c r="J104" s="5"/>
       <c r="K104" s="7"/>
       <c r="L104" s="20"/>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="4">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B105" s="16"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="20"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2938,8 +3022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890A58AD-036D-485B-A457-79A622266E3B}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3017,25 +3101,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I5" s="8">
         <v>45028</v>
@@ -3044,10 +3128,10 @@
         <v>17</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="36.75">
@@ -3056,16 +3140,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>16</v>
@@ -3095,10 +3179,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>16</v>
@@ -3128,10 +3212,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>16</v>
@@ -4794,8 +4878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0251EFA2-F071-424F-9191-E7B3DB25F7DC}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4879,7 +4963,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>15</v>
@@ -4912,7 +4996,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>20</v>
@@ -4945,10 +5029,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>16</v>
@@ -4974,13 +5058,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>15</v>
@@ -5013,7 +5097,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>20</v>
@@ -5046,10 +5130,10 @@
         <v>21</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>16</v>
@@ -6676,10 +6760,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA9AF38-7352-4E06-B242-52066A65ADD8}">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6757,16 +6841,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>16</v>
@@ -6788,18 +6872,18 @@
     </row>
     <row r="6" spans="1:12" ht="55.5">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A70" si="0">ROW()-4</f>
+        <f t="shared" ref="A6:A73" si="0">ROW()-4</f>
         <v>2</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="17" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>16</v>
@@ -6819,53 +6903,57 @@
       <c r="K6" s="7"/>
       <c r="L6" s="20"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" ht="36.75">
       <c r="A7" s="4">
-        <f>ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B7" s="16"/>
-      <c r="C7" s="9" t="s">
-        <v>55</v>
+      <c r="C7" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>16</v>
+        <v>60</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="I7" s="8">
-        <v>45028</v>
+        <v>45037</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="20"/>
-    </row>
-    <row r="8" spans="1:12" ht="55.5">
+      <c r="K7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>4</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="9" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>16</v>
@@ -6885,22 +6973,20 @@
       <c r="K8" s="7"/>
       <c r="L8" s="20"/>
     </row>
-    <row r="9" spans="1:12" ht="36.75">
+    <row r="9" spans="1:12" ht="55.5">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>49</v>
+      <c r="B9" s="16"/>
+      <c r="C9" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>16</v>
@@ -6920,20 +7006,22 @@
       <c r="K9" s="7"/>
       <c r="L9" s="20"/>
     </row>
-    <row r="10" spans="1:12" ht="55.5">
+    <row r="10" spans="1:12" ht="36.75">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="C10" s="17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>16</v>
@@ -6953,28 +7041,28 @@
       <c r="K10" s="7"/>
       <c r="L10" s="20"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" ht="55.5">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="C11" s="9" t="s">
-        <v>55</v>
+      <c r="C11" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="8">
@@ -6986,54 +7074,57 @@
       <c r="K11" s="7"/>
       <c r="L11" s="20"/>
     </row>
-    <row r="12" spans="1:12" ht="55.5">
+    <row r="12" spans="1:12" ht="36.75">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="9" t="s">
-        <v>58</v>
+      <c r="C12" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I12" s="8">
-        <v>45028</v>
+        <v>45037</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="1:12" ht="36.75">
+      <c r="K12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>16</v>
@@ -7059,14 +7150,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
-        <v>52</v>
+      <c r="C14" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>16</v>
@@ -7086,20 +7177,21 @@
       <c r="K14" s="7"/>
       <c r="L14" s="20"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" ht="36.75">
       <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>16</v>
@@ -7125,23 +7217,23 @@
         <v>12</v>
       </c>
       <c r="B16" s="16"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I16" s="8">
         <v>45028</v>
@@ -7149,29 +7241,23 @@
       <c r="J16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="36.75">
+      <c r="K16" s="7"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>49</v>
+      <c r="B17" s="16"/>
+      <c r="C17" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>16</v>
@@ -7197,23 +7283,23 @@
         <v>14</v>
       </c>
       <c r="B18" s="16"/>
-      <c r="C18" s="17" t="s">
-        <v>52</v>
+      <c r="C18" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I18" s="8">
         <v>45028</v>
@@ -7221,23 +7307,29 @@
       <c r="J18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="20"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="K18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="36.75">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>16</v>
@@ -7263,23 +7355,23 @@
         <v>16</v>
       </c>
       <c r="B20" s="16"/>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I20" s="8">
         <v>45028</v>
@@ -7287,29 +7379,23 @@
       <c r="J20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="36.75">
+      <c r="K20" s="7"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>49</v>
+      <c r="B21" s="16"/>
+      <c r="C21" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>16</v>
@@ -7329,29 +7415,29 @@
       <c r="K21" s="7"/>
       <c r="L21" s="20"/>
     </row>
-    <row r="22" spans="1:12" ht="110.25">
+    <row r="22" spans="1:12" ht="55.5">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B22" s="16"/>
-      <c r="C22" s="17" t="s">
-        <v>52</v>
+      <c r="C22" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I22" s="8">
         <v>45028</v>
@@ -7359,27 +7445,29 @@
       <c r="J22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="19" t="s">
-        <v>88</v>
+      <c r="K22" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="36.75">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>16</v>
@@ -7405,23 +7493,23 @@
         <v>20</v>
       </c>
       <c r="B24" s="16"/>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I24" s="8">
         <v>45028</v>
@@ -7430,28 +7518,26 @@
         <v>17</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="36.75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>49</v>
+      <c r="B25" s="16"/>
+      <c r="C25" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>16</v>
@@ -7471,29 +7557,29 @@
       <c r="K25" s="7"/>
       <c r="L25" s="20"/>
     </row>
-    <row r="26" spans="1:12" ht="55.5">
+    <row r="26" spans="1:12" ht="110.25">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B26" s="16"/>
-      <c r="C26" s="17" t="s">
-        <v>52</v>
+      <c r="C26" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I26" s="8">
         <v>45028</v>
@@ -7501,23 +7587,29 @@
       <c r="J26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="20"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="K26" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="36.75">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>16</v>
@@ -7537,20 +7629,20 @@
       <c r="K27" s="7"/>
       <c r="L27" s="20"/>
     </row>
-    <row r="28" spans="1:12" ht="36.75">
+    <row r="28" spans="1:12" ht="55.5">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="9" t="s">
-        <v>99</v>
+      <c r="C28" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>16</v>
@@ -7570,20 +7662,20 @@
       <c r="K28" s="7"/>
       <c r="L28" s="20"/>
     </row>
-    <row r="29" spans="1:12" ht="55.5">
+    <row r="29" spans="1:12">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="9" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>16</v>
@@ -7608,17 +7700,15 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>104</v>
+      <c r="B30" s="16"/>
+      <c r="C30" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>16</v>
@@ -7638,20 +7728,20 @@
       <c r="K30" s="7"/>
       <c r="L30" s="20"/>
     </row>
-    <row r="31" spans="1:12" ht="36.75">
+    <row r="31" spans="1:12" ht="55.5">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="9" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>16</v>
@@ -7677,16 +7767,16 @@
         <v>28</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>49</v>
+        <v>115</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>116</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>16</v>
@@ -7712,14 +7802,14 @@
         <v>29</v>
       </c>
       <c r="B33" s="16"/>
-      <c r="C33" s="17" t="s">
-        <v>52</v>
+      <c r="C33" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>16</v>
@@ -7739,20 +7829,22 @@
       <c r="K33" s="7"/>
       <c r="L33" s="20"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" ht="36.75">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>16</v>
@@ -7772,26 +7864,29 @@
       <c r="K34" s="7"/>
       <c r="L34" s="20"/>
     </row>
-    <row r="35" spans="1:12" ht="55.5">
-      <c r="A35" s="4"/>
+    <row r="35" spans="1:12" ht="36.75">
+      <c r="A35" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="B35" s="16"/>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I35" s="8">
         <v>45028</v>
@@ -7799,29 +7894,23 @@
       <c r="J35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="L35" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="36.75">
+      <c r="K35" s="7"/>
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>49</v>
+      <c r="B36" s="16"/>
+      <c r="C36" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>16</v>
@@ -7841,29 +7930,28 @@
       <c r="K36" s="7"/>
       <c r="L36" s="20"/>
     </row>
-    <row r="37" spans="1:12" ht="36.75">
+    <row r="37" spans="1:12" ht="55.5">
       <c r="A37" s="4">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="9" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I37" s="8">
         <v>45028</v>
@@ -7871,23 +7959,29 @@
       <c r="J37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="7"/>
-      <c r="L37" s="20"/>
+      <c r="K37" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="36.75">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="9" t="s">
-        <v>58</v>
+      <c r="B38" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>16</v>
@@ -7912,17 +8006,15 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>49</v>
+      <c r="B39" s="16"/>
+      <c r="C39" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>16</v>
@@ -7942,57 +8034,57 @@
       <c r="K39" s="7"/>
       <c r="L39" s="20"/>
     </row>
-    <row r="40" spans="1:12" ht="73.5">
+    <row r="40" spans="1:12" ht="36.75">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B40" s="16"/>
-      <c r="C40" s="17" t="s">
-        <v>52</v>
+      <c r="C40" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I40" s="8">
-        <v>45028</v>
+        <v>45037</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="L40" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="36.75">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="9" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>16</v>
@@ -8012,20 +8104,22 @@
       <c r="K41" s="7"/>
       <c r="L41" s="20"/>
     </row>
-    <row r="42" spans="1:12" ht="73.5">
+    <row r="42" spans="1:12" ht="36.75">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="9" t="s">
-        <v>58</v>
+      <c r="B42" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>16</v>
@@ -8045,31 +8139,29 @@
       <c r="K42" s="7"/>
       <c r="L42" s="20"/>
     </row>
-    <row r="43" spans="1:12" ht="36.75">
+    <row r="43" spans="1:12" ht="73.5">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>134</v>
-      </c>
+      <c r="B43" s="16"/>
       <c r="C43" s="17" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I43" s="8">
         <v>45028</v>
@@ -8077,32 +8169,36 @@
       <c r="J43" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K43" s="7"/>
-      <c r="L43" s="20"/>
-    </row>
-    <row r="44" spans="1:12" ht="55.5">
+      <c r="K43" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L43" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B44" s="16"/>
-      <c r="C44" s="17" t="s">
-        <v>52</v>
+      <c r="C44" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I44" s="8">
         <v>45028</v>
@@ -8110,27 +8206,23 @@
       <c r="J44" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L44" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="K44" s="7"/>
+      <c r="L44" s="20"/>
+    </row>
+    <row r="45" spans="1:12" ht="73.5">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="9" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>16</v>
@@ -8150,20 +8242,22 @@
       <c r="K45" s="7"/>
       <c r="L45" s="20"/>
     </row>
-    <row r="46" spans="1:12" ht="73.5">
+    <row r="46" spans="1:12" ht="36.75">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="9" t="s">
-        <v>58</v>
+      <c r="B46" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>16</v>
@@ -8183,31 +8277,29 @@
       <c r="K46" s="7"/>
       <c r="L46" s="20"/>
     </row>
-    <row r="47" spans="1:12" ht="36.75">
+    <row r="47" spans="1:12" ht="55.5">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>142</v>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I47" s="8">
         <v>45028</v>
@@ -8215,23 +8307,27 @@
       <c r="J47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="20"/>
-    </row>
-    <row r="48" spans="1:12" ht="55.5">
+      <c r="K47" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L47" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="9" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>16</v>
@@ -8251,22 +8347,20 @@
       <c r="K48" s="7"/>
       <c r="L48" s="20"/>
     </row>
-    <row r="49" spans="1:12" ht="36.75">
+    <row r="49" spans="1:12" ht="73.5">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>147</v>
+      <c r="B49" s="16"/>
+      <c r="C49" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>16</v>
@@ -8291,15 +8385,17 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17" t="s">
-        <v>150</v>
+      <c r="B50" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>16</v>
@@ -8319,20 +8415,20 @@
       <c r="K50" s="7"/>
       <c r="L50" s="20"/>
     </row>
-    <row r="51" spans="1:12" ht="275.25">
+    <row r="51" spans="1:12" ht="55.5">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="9" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>16</v>
@@ -8357,15 +8453,17 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="18" t="s">
-        <v>13</v>
+      <c r="B52" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>161</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>16</v>
@@ -8385,20 +8483,20 @@
       <c r="K52" s="7"/>
       <c r="L52" s="20"/>
     </row>
-    <row r="53" spans="1:12" ht="55.5">
+    <row r="53" spans="1:12" ht="36.75">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B53" s="16"/>
-      <c r="C53" s="18" t="s">
-        <v>18</v>
+      <c r="C53" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>16</v>
@@ -8418,20 +8516,20 @@
       <c r="K53" s="7"/>
       <c r="L53" s="20"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" ht="275.25">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B54" s="16"/>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>16</v>
@@ -8451,37 +8549,69 @@
       <c r="K54" s="7"/>
       <c r="L54" s="20"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" ht="36.75">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B55" s="16"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
+      <c r="C55" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K55" s="7"/>
       <c r="L55" s="20"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" ht="55.5">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B56" s="16"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
+      <c r="C56" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K56" s="7"/>
       <c r="L56" s="20"/>
     </row>
@@ -8491,14 +8621,30 @@
         <v>53</v>
       </c>
       <c r="B57" s="16"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
+      <c r="C57" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K57" s="7"/>
       <c r="L57" s="20"/>
     </row>
@@ -8725,7 +8871,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="4">
-        <f t="shared" ref="A71:A104" si="1">ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="B71" s="16"/>
@@ -8742,7 +8888,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="B72" s="16"/>
@@ -8759,7 +8905,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="B73" s="16"/>
@@ -8776,7 +8922,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A74:A107" si="1">ROW()-4</f>
         <v>70</v>
       </c>
       <c r="B74" s="16"/>
@@ -9301,6 +9447,57 @@
       <c r="K104" s="7"/>
       <c r="L104" s="20"/>
     </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="4">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B105" s="16"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="20"/>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="4">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B106" s="16"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="20"/>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="4">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B107" s="16"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="20"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:C4" xr:uid="{5002EB6D-83DE-495A-8897-1E0B91A38271}"/>

--- a/test_case/unit-test-case.xlsx
+++ b/test_case/unit-test-case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26419"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-unit-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0171DAE-B7B8-4421-950B-38ACD39527F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{093F76A3-1B61-43BB-86EA-D6F94C91FCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB登録エラー画面" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="172">
   <si>
     <t>テストID</t>
   </si>
@@ -307,6 +307,10 @@
     <t>入力欄の下に「カタカナで入力してください」とエラーメッセージが表示される</t>
   </si>
   <si>
+    <t>1.「カナ（姓）」の入力フォームには「0」を入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
     <t>1.「カナ（姓）」の入力フォームへ「11文字」入力する</t>
   </si>
   <si>
@@ -317,7 +321,7 @@
     <t>半角カタカナでは許容外文字種となる</t>
   </si>
   <si>
-    <t>全角カタカナで入力を促すメッセージを表示するか、半角カタカナを全角へ変換する</t>
+    <t>全角カタカナで入力を促すメッセージを表示する</t>
   </si>
   <si>
     <t>カナ（名）</t>
@@ -334,6 +338,10 @@
 2.確認ボタンをクリックする</t>
   </si>
   <si>
+    <t>1.「カナ（名）」の入力フォームには「0」を入力する
+2.確認ボタンをクリックする</t>
+  </si>
+  <si>
     <t>1.「カナ（名）」の入力フォームへ「11文字」入力する</t>
   </si>
   <si>
@@ -341,9 +349,6 @@
 2.確認ボタンをクリックする</t>
   </si>
   <si>
-    <t>全角カタカナで入力を促すメッセージを表示するか、半角カタカナを全角カタカナへ変換する</t>
-  </si>
-  <si>
     <t>メールアドレス</t>
   </si>
   <si>
@@ -365,8 +370,8 @@
 edge:「a@あ」では、エラー表示にならない、メール形式で入力するようブラウザのデフォルトのメッセージが表示される</t>
   </si>
   <si>
-    <t>input type=mailではなく、textを使って、php側で制御する
-mailとして指定しておき、補助的に使う</t>
+    <t>mailとして指定しておき、一次チェックとして活用するが、ブラウザごとで挙動が異なるため、
+オンマウスで「メールアドレスの形式で入力してください」を表示</t>
   </si>
   <si>
     <t>1.「メールアドレス」の入力フォームへ「101文字」入力する</t>
@@ -379,9 +384,6 @@
 2.確認ボタンをクリックする</t>
   </si>
   <si>
-    <t>input type=mailではなく、textを使って、php側で制御する</t>
-  </si>
-  <si>
     <t>パスワード</t>
   </si>
   <si>
@@ -514,7 +516,8 @@
     <t>「＾」「＝」などの全角記号ではエラーとならない</t>
   </si>
   <si>
-    <t>全角記号の文字コードを除外する</t>
+    <t>全角記号の文字コードを除外する
+"/^[0-9０-９ぁ-んァ-ヶー一-龠　\s\-\－]+$/u"　とすることで成功</t>
   </si>
   <si>
     <t>1.「住所（市区町村）」の入力フォームへ「11文字」入力する</t>
@@ -4879,7 +4882,7 @@
   <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:F12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6760,10 +6763,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA9AF38-7352-4E06-B242-52066A65ADD8}">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6779,25 +6782,25 @@
     <col min="12" max="12" width="29.125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1"/>
       <c r="B1" s="15"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="15"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="15"/>
     </row>
-    <row r="4" spans="1:12" s="13" customFormat="1" ht="22.5">
+    <row r="4" spans="1:13" s="13" customFormat="1" ht="22.5">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
@@ -6835,7 +6838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="36.75">
+    <row r="5" spans="1:13" ht="36.75">
       <c r="A5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
@@ -6870,9 +6873,9 @@
       <c r="K5" s="6"/>
       <c r="L5" s="20"/>
     </row>
-    <row r="6" spans="1:12" ht="55.5">
+    <row r="6" spans="1:13" ht="55.5">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A73" si="0">ROW()-4</f>
+        <f t="shared" ref="A6:A75" si="0">ROW()-4</f>
         <v>2</v>
       </c>
       <c r="B6" s="16"/>
@@ -6903,7 +6906,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="20"/>
     </row>
-    <row r="7" spans="1:12" ht="36.75">
+    <row r="7" spans="1:13" ht="36.75">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6939,8 +6942,11 @@
       <c r="L7" s="20" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="4">
         <f>ROW()-4</f>
         <v>4</v>
@@ -6973,7 +6979,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="20"/>
     </row>
-    <row r="9" spans="1:12" ht="55.5">
+    <row r="9" spans="1:13" ht="55.5">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7006,7 +7012,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="20"/>
     </row>
-    <row r="10" spans="1:12" ht="36.75">
+    <row r="10" spans="1:13" ht="36.75">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7041,7 +7047,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="20"/>
     </row>
-    <row r="11" spans="1:12" ht="55.5">
+    <row r="11" spans="1:13" ht="55.5">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7074,7 +7080,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="20"/>
     </row>
-    <row r="12" spans="1:12" ht="36.75">
+    <row r="12" spans="1:13" ht="36.75">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7110,8 +7116,11 @@
       <c r="L12" s="20" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7144,7 +7153,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="20"/>
     </row>
-    <row r="14" spans="1:12" ht="55.5">
+    <row r="14" spans="1:13" ht="55.5">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7177,7 +7186,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="20"/>
     </row>
-    <row r="15" spans="1:12" ht="36.75">
+    <row r="15" spans="1:13" ht="36.75">
       <c r="A15" s="4">
         <v>9</v>
       </c>
@@ -7211,7 +7220,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="1:12" ht="55.5">
+    <row r="16" spans="1:13" ht="55.5">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7244,62 +7253,69 @@
       <c r="K16" s="7"/>
       <c r="L16" s="20"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13" ht="36.75">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B17" s="16"/>
-      <c r="C17" s="9" t="s">
-        <v>65</v>
+      <c r="C17" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>83</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I17" s="8">
-        <v>45028</v>
+        <v>45037</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="20"/>
-    </row>
-    <row r="18" spans="1:12" ht="55.5">
+      <c r="K17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I18" s="8">
         <v>45028</v>
@@ -7307,38 +7323,32 @@
       <c r="J18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="7"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:13" ht="55.5">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L18" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="36.75">
-      <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>88</v>
-      </c>
       <c r="E19" s="9" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I19" s="8">
         <v>45028</v>
@@ -7346,23 +7356,32 @@
       <c r="J19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="20"/>
-    </row>
-    <row r="20" spans="1:12" ht="55.5">
+      <c r="K19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="36.75">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="16"/>
+      <c r="B20" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="C20" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>16</v>
@@ -7382,20 +7401,20 @@
       <c r="K20" s="7"/>
       <c r="L20" s="20"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13" ht="55.5">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B21" s="16"/>
-      <c r="C21" s="9" t="s">
-        <v>65</v>
+      <c r="C21" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>91</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>16</v>
@@ -7415,20 +7434,20 @@
       <c r="K21" s="7"/>
       <c r="L21" s="20"/>
     </row>
-    <row r="22" spans="1:12" ht="55.5">
+    <row r="22" spans="1:13" ht="36.75">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B22" s="16"/>
-      <c r="C22" s="9" t="s">
-        <v>68</v>
+      <c r="C22" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>92</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>35</v>
@@ -7440,34 +7459,35 @@
         <v>35</v>
       </c>
       <c r="I22" s="8">
-        <v>45028</v>
+        <v>45037</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="L22" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="M22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="36.75">
-      <c r="A23" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="E23" s="9" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>16</v>
@@ -7487,20 +7507,20 @@
       <c r="K23" s="7"/>
       <c r="L23" s="20"/>
     </row>
-    <row r="24" spans="1:12" ht="110.25">
+    <row r="24" spans="1:13" ht="55.5">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B24" s="16"/>
-      <c r="C24" s="17" t="s">
-        <v>58</v>
+      <c r="C24" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>35</v>
@@ -7517,27 +7537,32 @@
       <c r="J24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="19" t="s">
-        <v>99</v>
+      <c r="K24" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>87</v>
+      </c>
+      <c r="M24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="36.75">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="9" t="s">
-        <v>65</v>
+      <c r="B25" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>16</v>
@@ -7557,20 +7582,20 @@
       <c r="K25" s="7"/>
       <c r="L25" s="20"/>
     </row>
-    <row r="26" spans="1:12" ht="110.25">
+    <row r="26" spans="1:13" ht="110.25">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B26" s="16"/>
-      <c r="C26" s="9" t="s">
-        <v>68</v>
+      <c r="C26" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>35</v>
@@ -7588,28 +7613,29 @@
         <v>17</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="36.75">
+        <v>101</v>
+      </c>
+      <c r="M26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>55</v>
+      <c r="B27" s="16"/>
+      <c r="C27" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>16</v>
@@ -7629,29 +7655,29 @@
       <c r="K27" s="7"/>
       <c r="L27" s="20"/>
     </row>
-    <row r="28" spans="1:12" ht="55.5">
+    <row r="28" spans="1:13" ht="110.25">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="17" t="s">
-        <v>58</v>
+      <c r="C28" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I28" s="8">
         <v>45028</v>
@@ -7659,23 +7685,32 @@
       <c r="J28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="20"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="K28" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="M28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="36.75">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="9" t="s">
-        <v>65</v>
+      <c r="B29" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>16</v>
@@ -7695,20 +7730,20 @@
       <c r="K29" s="7"/>
       <c r="L29" s="20"/>
     </row>
-    <row r="30" spans="1:12" ht="36.75">
+    <row r="30" spans="1:13" ht="55.5">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="9" t="s">
-        <v>111</v>
+      <c r="C30" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>16</v>
@@ -7728,20 +7763,20 @@
       <c r="K30" s="7"/>
       <c r="L30" s="20"/>
     </row>
-    <row r="31" spans="1:12" ht="55.5">
+    <row r="31" spans="1:13">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>16</v>
@@ -7761,22 +7796,20 @@
       <c r="K31" s="7"/>
       <c r="L31" s="20"/>
     </row>
-    <row r="32" spans="1:12" ht="36.75">
+    <row r="32" spans="1:13" ht="36.75">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>116</v>
+      <c r="B32" s="16"/>
+      <c r="C32" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>16</v>
@@ -7796,7 +7829,7 @@
       <c r="K32" s="7"/>
       <c r="L32" s="20"/>
     </row>
-    <row r="33" spans="1:12" ht="36.75">
+    <row r="33" spans="1:13" ht="55.5">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7806,7 +7839,7 @@
         <v>68</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>70</v>
@@ -7829,22 +7862,22 @@
       <c r="K33" s="7"/>
       <c r="L33" s="20"/>
     </row>
-    <row r="34" spans="1:12" ht="36.75">
+    <row r="34" spans="1:13" ht="36.75">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>55</v>
+        <v>115</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>116</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>16</v>
@@ -7864,20 +7897,20 @@
       <c r="K34" s="7"/>
       <c r="L34" s="20"/>
     </row>
-    <row r="35" spans="1:12" ht="36.75">
+    <row r="35" spans="1:13" ht="36.75">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B35" s="16"/>
-      <c r="C35" s="17" t="s">
-        <v>58</v>
+      <c r="C35" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>16</v>
@@ -7897,20 +7930,22 @@
       <c r="K35" s="7"/>
       <c r="L35" s="20"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13" ht="36.75">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="9" t="s">
-        <v>65</v>
+      <c r="B36" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>16</v>
@@ -7930,28 +7965,29 @@
       <c r="K36" s="7"/>
       <c r="L36" s="20"/>
     </row>
-    <row r="37" spans="1:12" ht="55.5">
+    <row r="37" spans="1:13" ht="36.75">
       <c r="A37" s="4">
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="B37" s="16"/>
-      <c r="C37" s="9" t="s">
-        <v>68</v>
+      <c r="C37" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I37" s="8">
         <v>45028</v>
@@ -7959,29 +7995,23 @@
       <c r="J37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="L37" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="36.75">
+      <c r="K37" s="7"/>
+      <c r="L37" s="20"/>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>55</v>
+      <c r="B38" s="16"/>
+      <c r="C38" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>16</v>
@@ -8001,29 +8031,28 @@
       <c r="K38" s="7"/>
       <c r="L38" s="20"/>
     </row>
-    <row r="39" spans="1:12" ht="36.75">
+    <row r="39" spans="1:13" ht="55.5">
       <c r="A39" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="9" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I39" s="8">
         <v>45028</v>
@@ -8031,60 +8060,65 @@
       <c r="J39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="20"/>
-    </row>
-    <row r="40" spans="1:12" ht="36.75">
+      <c r="K39" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="M39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="36.75">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="18" t="s">
-        <v>136</v>
+      <c r="B40" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I40" s="8">
-        <v>45037</v>
+        <v>45028</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L40" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="36.75">
+      <c r="K40" s="7"/>
+      <c r="L40" s="20"/>
+    </row>
+    <row r="41" spans="1:13" ht="36.75">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="9" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>16</v>
@@ -8104,64 +8138,69 @@
       <c r="K41" s="7"/>
       <c r="L41" s="20"/>
     </row>
-    <row r="42" spans="1:12" ht="36.75">
+    <row r="42" spans="1:13" ht="36.75">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>55</v>
+      <c r="B42" s="16"/>
+      <c r="C42" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I42" s="8">
-        <v>45028</v>
+        <v>45037</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K42" s="7"/>
-      <c r="L42" s="20"/>
-    </row>
-    <row r="43" spans="1:12" ht="73.5">
+      <c r="K42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="M42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="36.75">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B43" s="16"/>
-      <c r="C43" s="17" t="s">
-        <v>58</v>
+      <c r="C43" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I43" s="8">
         <v>45028</v>
@@ -8169,27 +8208,25 @@
       <c r="J43" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K43" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L43" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="K43" s="7"/>
+      <c r="L43" s="20"/>
+    </row>
+    <row r="44" spans="1:13" ht="36.75">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="9" t="s">
-        <v>65</v>
+      <c r="B44" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>16</v>
@@ -8209,29 +8246,29 @@
       <c r="K44" s="7"/>
       <c r="L44" s="20"/>
     </row>
-    <row r="45" spans="1:12" ht="73.5">
+    <row r="45" spans="1:13" ht="73.5">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B45" s="16"/>
-      <c r="C45" s="9" t="s">
-        <v>68</v>
+      <c r="C45" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I45" s="8">
         <v>45028</v>
@@ -8239,25 +8276,30 @@
       <c r="J45" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K45" s="7"/>
-      <c r="L45" s="20"/>
-    </row>
-    <row r="46" spans="1:12" ht="36.75">
+      <c r="K45" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L45" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="M45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>55</v>
+      <c r="B46" s="16"/>
+      <c r="C46" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>16</v>
@@ -8277,29 +8319,29 @@
       <c r="K46" s="7"/>
       <c r="L46" s="20"/>
     </row>
-    <row r="47" spans="1:12" ht="55.5">
+    <row r="47" spans="1:13" ht="73.5">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B47" s="16"/>
-      <c r="C47" s="17" t="s">
-        <v>58</v>
+      <c r="C47" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I47" s="8">
         <v>45028</v>
@@ -8307,27 +8349,25 @@
       <c r="J47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L47" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="K47" s="7"/>
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="1:13" ht="36.75">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="9" t="s">
-        <v>65</v>
+      <c r="B48" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>16</v>
@@ -8347,29 +8387,29 @@
       <c r="K48" s="7"/>
       <c r="L48" s="20"/>
     </row>
-    <row r="49" spans="1:12" ht="73.5">
+    <row r="49" spans="1:13" ht="55.5">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B49" s="16"/>
-      <c r="C49" s="9" t="s">
-        <v>68</v>
+      <c r="C49" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I49" s="8">
         <v>45028</v>
@@ -8377,25 +8417,30 @@
       <c r="J49" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K49" s="7"/>
-      <c r="L49" s="20"/>
-    </row>
-    <row r="50" spans="1:12" ht="36.75">
+      <c r="K49" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L49" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="M49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>155</v>
-      </c>
+      <c r="B50" s="16"/>
       <c r="C50" s="9" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>16</v>
@@ -8415,7 +8460,7 @@
       <c r="K50" s="7"/>
       <c r="L50" s="20"/>
     </row>
-    <row r="51" spans="1:12" ht="55.5">
+    <row r="51" spans="1:13" ht="73.5">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -8425,7 +8470,7 @@
         <v>68</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>70</v>
@@ -8448,22 +8493,22 @@
       <c r="K51" s="7"/>
       <c r="L51" s="20"/>
     </row>
-    <row r="52" spans="1:12" ht="36.75">
+    <row r="52" spans="1:13" ht="36.75">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>161</v>
+        <v>155</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>16</v>
@@ -8483,20 +8528,20 @@
       <c r="K52" s="7"/>
       <c r="L52" s="20"/>
     </row>
-    <row r="53" spans="1:12" ht="36.75">
+    <row r="53" spans="1:13" ht="55.5">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B53" s="16"/>
-      <c r="C53" s="17" t="s">
-        <v>164</v>
+      <c r="C53" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>16</v>
@@ -8516,20 +8561,22 @@
       <c r="K53" s="7"/>
       <c r="L53" s="20"/>
     </row>
-    <row r="54" spans="1:12" ht="275.25">
+    <row r="54" spans="1:13" ht="36.75">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="9" t="s">
-        <v>21</v>
+      <c r="B54" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>161</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>16</v>
@@ -8549,20 +8596,20 @@
       <c r="K54" s="7"/>
       <c r="L54" s="20"/>
     </row>
-    <row r="55" spans="1:12" ht="36.75">
+    <row r="55" spans="1:13" ht="36.75">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B55" s="16"/>
-      <c r="C55" s="18" t="s">
-        <v>13</v>
+      <c r="C55" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>16</v>
@@ -8582,20 +8629,20 @@
       <c r="K55" s="7"/>
       <c r="L55" s="20"/>
     </row>
-    <row r="56" spans="1:12" ht="55.5">
+    <row r="56" spans="1:13" ht="275.25">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B56" s="16"/>
-      <c r="C56" s="18" t="s">
-        <v>18</v>
+      <c r="C56" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>16</v>
@@ -8615,20 +8662,20 @@
       <c r="K56" s="7"/>
       <c r="L56" s="20"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:13" ht="36.75">
       <c r="A57" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>16</v>
@@ -8648,41 +8695,73 @@
       <c r="K57" s="7"/>
       <c r="L57" s="20"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:13" ht="55.5">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B58" s="16"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
+      <c r="C58" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K58" s="7"/>
       <c r="L58" s="20"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:13">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B59" s="16"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
+      <c r="C59" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K59" s="7"/>
       <c r="L59" s="20"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:13">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -8699,7 +8778,7 @@
       <c r="K60" s="7"/>
       <c r="L60" s="20"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:13">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -8716,7 +8795,7 @@
       <c r="K61" s="7"/>
       <c r="L61" s="20"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:13">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -8733,7 +8812,7 @@
       <c r="K62" s="7"/>
       <c r="L62" s="20"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:13">
       <c r="A63" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -8750,7 +8829,7 @@
       <c r="K63" s="7"/>
       <c r="L63" s="20"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:13">
       <c r="A64" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -8922,7 +9001,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="4">
-        <f t="shared" ref="A74:A107" si="1">ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="B74" s="16"/>
@@ -8939,7 +9018,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="B75" s="16"/>
@@ -8956,7 +9035,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A76:A109" si="1">ROW()-4</f>
         <v>72</v>
       </c>
       <c r="B76" s="16"/>
@@ -9498,6 +9577,40 @@
       <c r="K107" s="7"/>
       <c r="L107" s="20"/>
     </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="4">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B108" s="16"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="20"/>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="4">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B109" s="16"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="20"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:C4" xr:uid="{5002EB6D-83DE-495A-8897-1E0B91A38271}"/>

--- a/test_case/unit-test-case.xlsx
+++ b/test_case/unit-test-case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26419"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26424"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-unit-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{093F76A3-1B61-43BB-86EA-D6F94C91FCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A23D92B5-AF89-438A-90BD-F9F45CB5F622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,7 +463,8 @@
     <t>1～6文字では「郵便番号は半角数字7桁で入力してください」のエラーとなる</t>
   </si>
   <si>
-    <t>3文字もしくは7文字での入力をOKにする</t>
+    <t>3文字もしくは7文字での入力をOKにする
+/^[0-9]{3}([0-9]{4})?$/</t>
   </si>
   <si>
     <t>住所（都道府県）</t>
@@ -517,7 +518,7 @@
   </si>
   <si>
     <t>全角記号の文字コードを除外する
-"/^[0-9０-９ぁ-んァ-ヶー一-龠　\s\-\－]+$/u"　とすることで成功</t>
+"/^[0-9０-９ぁ-んァ-ヶー一-龠　－\-\s]+$/u";　とすることで成功</t>
   </si>
   <si>
     <t>1.「住所（市区町村）」の入力フォームへ「11文字」入力する</t>
@@ -6765,8 +6766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA9AF38-7352-4E06-B242-52066A65ADD8}">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="G43" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
